--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_646.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_646.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32580-d78385-Reviews-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>136</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Residence-Inn-By-Marriott-La-Mirada.h161.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_646.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_646.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1501 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r564747248-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>32580</t>
+  </si>
+  <si>
+    <t>78385</t>
+  </si>
+  <si>
+    <t>564747248</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Avoid - Atrocious Room Conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked in and had to check back out. Super friendly and professional front desk staff. Just wish they had a better facility to represent.  Two stars for the nice staff.The rooms appear renovated recently, but they have been thoroughly enjoyed. Yellow phones, switches, etc. Previous guests hair on my phone. Old and dingy bathroom. You must lug your suitcase upstairs as there is no elevator.  Not ADA friendly if that’s important to you. I could get past the old facilities, but having a dirty room is unacceptable. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r557611599-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>557611599</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Awesome Hotel!!</t>
+  </si>
+  <si>
+    <t>One of my favorite hotels I've ever stayed in. The layout of the hotel makes it a nice and quiet location with quick access to the 5 freeway. Not a far drive to Disneyland and Knotts Berry Farm so it was great to have the family here. I didn't expect the room to be so large! Housekeeping is amazing! The guy at check in was extremely friendly and professional, able to assist me with all questions that I had. I will definitely stay again.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r552839606-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>552839606</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Very nice stsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a two bedroom suite with a sofa bed.  The queen beds were comfortable but the sofa bed could not sleep 2 adults  as we were told.  The wi-if and TV worked fine.  The bathroom had a heated ceiling vent/fan that felt so nice after a shower.  We used one log in the fireplace (for free), after that we would have been charged. The pool was not cold and the hot tub was not too hot.  The breakfast was adequate: scrambled eggs, waffles, sausage, fruit, cereal, oatmeal, yogurt, juice, coffee, pastries.  This was like ‘home away from home’.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r536683404-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>536683404</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn La Miranda/ Buena Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is located right off I-5 about 10 minutes from Disneyland.  It is one of the nicer Residence Inn’s around with a completely update rooms.  Plenty of parking, pool, and nice lobby area.  In-N-Out Burger is right next door along with a large Harbor Freight.  Great family hotel with large rooms with separate living and sleeping arrangements.  My only suggestion would be to request a room in the back of the complex to avoid hearing the freeway traffic.  </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r533328702-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>533328702</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>The hotel is okay overall, the parking is very difficult the spaces are small and they don’t have enough. The lobby is nice and staff is friendly. The breakfast has several options but the configuration of the Dinning area makes it very difficult to navigate and get food and it gets super crowded so get there as soon as they open. The rooms as spacious but need a small remodel mostly the bathrooms. They are still old style and they don’t clean them as often as they should. The toilet and the shower had many dirty places and it was small. The curtains are old and don’t cover the whole shower even though we tried different things the water still fell outside and made a mess. I almost slipped that’s why we had to place towels on the floor for the water. Overall it’s okay for the price and it’s close to the Anaheim/Disney area if you don’t want to pay too much for a hotel. Also it’s about 25 minutes from downtown LA so it’s a good alternative. Although make sure to get directions there are construction on both directions of the hotel and there is only one way to get there from the freeway. I would only stay there again if I have to but not a future option for me. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ashish R, Guest Relations Manager at Residence Inn La Mirada Buena Park, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is okay overall, the parking is very difficult the spaces are small and they don’t have enough. The lobby is nice and staff is friendly. The breakfast has several options but the configuration of the Dinning area makes it very difficult to navigate and get food and it gets super crowded so get there as soon as they open. The rooms as spacious but need a small remodel mostly the bathrooms. They are still old style and they don’t clean them as often as they should. The toilet and the shower had many dirty places and it was small. The curtains are old and don’t cover the whole shower even though we tried different things the water still fell outside and made a mess. I almost slipped that’s why we had to place towels on the floor for the water. Overall it’s okay for the price and it’s close to the Anaheim/Disney area if you don’t want to pay too much for a hotel. Also it’s about 25 minutes from downtown LA so it’s a good alternative. Although make sure to get directions there are construction on both directions of the hotel and there is only one way to get there from the freeway. I would only stay there again if I have to but not a future option for me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r528179863-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>528179863</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Worked for what we needed</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for one night during a quick visit to the LA area. This hotel is probably a better fit for a long-term stay, since the rooms have full kitchens (full-size fridge, microwave, stove, oven) but we just needed the bed and bathroom and chose the hotel for its rate. It was adequate for our needs. The bed wasn't overly comfortable, and there was a lot of noise in the room, both from the nearby freeway, and from a train the next morning. Breakfast was free but just average compared to others we've had. Overall this hotel was fine but nothing special.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r506350932-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>506350932</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Chris and Trevor at the front desk were absolutely awesome - they helped accommodate our special needs for our two rooms booked and helped made our stay as comfortable and relaxing as possible. As for the rooms, the two-bedroom-suites that we booked were just as expected/advertised. Great rooms, clean, comfortable, and had all the amenities we needed for our family. No complaints whatsoever! This is definitely somewhere we'll be coming back to in the future when we visit the Cerritos area.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r503660668-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>503660668</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Couples Trip for Disney/Universal</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence in for 3 nights for a double date trip to Disney and Universal. The hotel is located right off the highway which is perfect for getting around. A big plus was the free parking. We stayed in a two bedroom suite and the living space/kitchen and bedrooms were just what we needed, the bathrooms could have been refreshed/renovated a bit and were quite dark. We were at the back of the hotel so didn't hear much noise from the highway which was nice. The complimentary breakfast was great too. A large variety every morning, however our last morning there was a Saturday and it was very busy with guests. We didn't make us of the gym or pool and the hot tub was just luke warm. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence in for 3 nights for a double date trip to Disney and Universal. The hotel is located right off the highway which is perfect for getting around. A big plus was the free parking. We stayed in a two bedroom suite and the living space/kitchen and bedrooms were just what we needed, the bathrooms could have been refreshed/renovated a bit and were quite dark. We were at the back of the hotel so didn't hear much noise from the highway which was nice. The complimentary breakfast was great too. A large variety every morning, however our last morning there was a Saturday and it was very busy with guests. We didn't make us of the gym or pool and the hot tub was just luke warm. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r502875832-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>502875832</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect for what we needed</t>
+  </si>
+  <si>
+    <t>My family and I are taking a week long vacation in California, first stop was the Residence Inn in La Mirada.  La Mirada is about an hour out of Los Angeles, which is great for visiting LA then heading back to the quiet out of the city.The hotel was very quiet and staff was friendly and helpful.  Usually I rate the exercise rooms, but a knee injury has kept me out of the weight room. :(.  The pool was good and the water wasn't ice cold.  (My wife was happy about that).  The pool wasn't big, but there was enough room with us and 3 other families to move around without bumping into each other.The hotel is close to L.A.  and Disneyland, kinda the perfect location.The hotel does offer breakfast for its guests.  It was very crowded and a little chaotic.  The food was ok, but not great.  The sausages were dry and they were low on a lot of other foods.  Probably the only blemish on the hotel, but there were a lot of guests and it could've been a demand issue.Overall, a great night at a good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I are taking a week long vacation in California, first stop was the Residence Inn in La Mirada.  La Mirada is about an hour out of Los Angeles, which is great for visiting LA then heading back to the quiet out of the city.The hotel was very quiet and staff was friendly and helpful.  Usually I rate the exercise rooms, but a knee injury has kept me out of the weight room. :(.  The pool was good and the water wasn't ice cold.  (My wife was happy about that).  The pool wasn't big, but there was enough room with us and 3 other families to move around without bumping into each other.The hotel is close to L.A.  and Disneyland, kinda the perfect location.The hotel does offer breakfast for its guests.  It was very crowded and a little chaotic.  The food was ok, but not great.  The sausages were dry and they were low on a lot of other foods.  Probably the only blemish on the hotel, but there were a lot of guests and it could've been a demand issue.Overall, a great night at a good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r501232522-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>501232522</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>The Worst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loud as its got interstate 5 on one side and a train on the other.  People up talking at 6am. Loudly! Like bugs? Lots of mosquitos and gnats. Dirty with dead bugs and a cloudy pool. Workout room dirty. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r495162735-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>495162735</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Our choice for North Orange County</t>
+  </si>
+  <si>
+    <t>We've tried a variety of hotels when visiting family in North Orange County. Most are overpriced and overrun with kids in Mickey Mouse ears. The Residence Inn La Mirada is a welcome respite. Quiet with helpful staff and a great breakfast. Couldn't ask for more. This is now our 'go to' place to stay in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r494884081-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>494884081</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Like living on an island</t>
+  </si>
+  <si>
+    <t>Residence Inn La Mirada is not a Marriott owned property. The franchisees manage it quite well though. However there is so much construction around Buena Park  area. getting to the hotel is a daily problem as many approach roads are closed. Took me a two or three days to get to know best navigation routes. 
+They have free breakfast included but it begins only at 6:30am. I had to travel on work daily and to beat the well known LA traffic I left the hotel by 5:30 every morning. I went to nearby Holiday Inn for eating breakfast which has a 24 hour restaurant. I noticed Holiday Inn was much better and room prices were cheaper than Residence Inn La Mirada too. As a Marriott Rewards member I decided to stay but I ate breakfast at Holiday Inn.
+There are practically no restaurants nearby other than "In and Out Burger" or the one at Holiday Inn. At Inn &amp; Out Burger they serve only red meat burgers which I do not eat. Going to Holday Inn for the second time every day was out. So evenings I grabbed frozen food from Residence Inn Market - frozen food heated in the microwave in my room. Not much of dinner to talk about. Residence Inn offers free food and wine on three evenings each week. Wine was Costco wine but good in taste. They also served beer on these three evenings. 
+The...Residence Inn La Mirada is not a Marriott owned property. The franchisees manage it quite well though. However there is so much construction around Buena Park  area. getting to the hotel is a daily problem as many approach roads are closed. Took me a two or three days to get to know best navigation routes. They have free breakfast included but it begins only at 6:30am. I had to travel on work daily and to beat the well known LA traffic I left the hotel by 5:30 every morning. I went to nearby Holiday Inn for eating breakfast which has a 24 hour restaurant. I noticed Holiday Inn was much better and room prices were cheaper than Residence Inn La Mirada too. As a Marriott Rewards member I decided to stay but I ate breakfast at Holiday Inn.There are practically no restaurants nearby other than "In and Out Burger" or the one at Holiday Inn. At Inn &amp; Out Burger they serve only red meat burgers which I do not eat. Going to Holday Inn for the second time every day was out. So evenings I grabbed frozen food from Residence Inn Market - frozen food heated in the microwave in my room. Not much of dinner to talk about. Residence Inn offers free food and wine on three evenings each week. Wine was Costco wine but good in taste. They also served beer on these three evenings. The property is spread out over an area with several buildings, each building with 8 or 10 rooms. You end up walking a good distance if you get a room far interior on the property. Swimming pool, laundry and gym are located near the hotel office building. Pool was always occupied with kids most evenings but a nice place to cool off in summer months. Apparently hotel guests have been feeding birds while seated on the pool side tables. I found a bird that ate from my hands. That was a wonderful experience. See a frame capture from a video I took. (Sadly this site does not allow uploading of videos). As I said living for two weeks at this hotel was like living on an island. They do not have a proper restaurant and so not the most suitable for business dinners. Staff is nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Residence Inn La Mirada is not a Marriott owned property. The franchisees manage it quite well though. However there is so much construction around Buena Park  area. getting to the hotel is a daily problem as many approach roads are closed. Took me a two or three days to get to know best navigation routes. 
+They have free breakfast included but it begins only at 6:30am. I had to travel on work daily and to beat the well known LA traffic I left the hotel by 5:30 every morning. I went to nearby Holiday Inn for eating breakfast which has a 24 hour restaurant. I noticed Holiday Inn was much better and room prices were cheaper than Residence Inn La Mirada too. As a Marriott Rewards member I decided to stay but I ate breakfast at Holiday Inn.
+There are practically no restaurants nearby other than "In and Out Burger" or the one at Holiday Inn. At Inn &amp; Out Burger they serve only red meat burgers which I do not eat. Going to Holday Inn for the second time every day was out. So evenings I grabbed frozen food from Residence Inn Market - frozen food heated in the microwave in my room. Not much of dinner to talk about. Residence Inn offers free food and wine on three evenings each week. Wine was Costco wine but good in taste. They also served beer on these three evenings. 
+The...Residence Inn La Mirada is not a Marriott owned property. The franchisees manage it quite well though. However there is so much construction around Buena Park  area. getting to the hotel is a daily problem as many approach roads are closed. Took me a two or three days to get to know best navigation routes. They have free breakfast included but it begins only at 6:30am. I had to travel on work daily and to beat the well known LA traffic I left the hotel by 5:30 every morning. I went to nearby Holiday Inn for eating breakfast which has a 24 hour restaurant. I noticed Holiday Inn was much better and room prices were cheaper than Residence Inn La Mirada too. As a Marriott Rewards member I decided to stay but I ate breakfast at Holiday Inn.There are practically no restaurants nearby other than "In and Out Burger" or the one at Holiday Inn. At Inn &amp; Out Burger they serve only red meat burgers which I do not eat. Going to Holday Inn for the second time every day was out. So evenings I grabbed frozen food from Residence Inn Market - frozen food heated in the microwave in my room. Not much of dinner to talk about. Residence Inn offers free food and wine on three evenings each week. Wine was Costco wine but good in taste. They also served beer on these three evenings. The property is spread out over an area with several buildings, each building with 8 or 10 rooms. You end up walking a good distance if you get a room far interior on the property. Swimming pool, laundry and gym are located near the hotel office building. Pool was always occupied with kids most evenings but a nice place to cool off in summer months. Apparently hotel guests have been feeding birds while seated on the pool side tables. I found a bird that ate from my hands. That was a wonderful experience. See a frame capture from a video I took. (Sadly this site does not allow uploading of videos). As I said living for two weeks at this hotel was like living on an island. They do not have a proper restaurant and so not the most suitable for business dinners. Staff is nice and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r463619743-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>463619743</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>HUGE ROOM</t>
+  </si>
+  <si>
+    <t>I had my friends stay here at this place. Amazing! Breakfast included. FIREPLACE included too! Very nice staff. Understandable. Thank you very much! Close to Disneyland. Well set up! The front desk very helpful.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r459458536-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>459458536</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>This is an older hotel that has been renovated. It is close to Biola University if you have a student attending there. It is right next door to an Inn and Out which is a plus also. The staff is friendly and great customer service.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r458588009-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>458588009</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Kristine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good place to stay. Feels like "home" quiet and they have nice staffs here. Me and my husband loves the ambience and complementaries. Overall excellent hotel, I would definitely recommend this place. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r441581271-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>441581271</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>"Homes" away from Home: Best place for schedule-challenged families</t>
+  </si>
+  <si>
+    <t>I don't know about your family, but when my family gets together for an event or a holiday, scheduling everyone, figuring out the rendezvous point and making it "stressless" are always a challenge. The beauty of Residence Inn La Mirada is it takes all those challenges away. If you bring a dog – the dog needs to be walked. And lo and behold, you can run into family members on your schedule and theirs! Also, with the bountiful and delicious breakfast options – you don't even have to set a time – you will see your family in the dining room - again at your convenience and theirs! 
+We love the Residence Inn La Mirada. It  has become our home away from home in the Los Angeles / Orange County area. We usually try to get one of the bedroom units, and that makes it so easy to accommodate spur of the moment visits from family. If someone isn't ready to go – or come out and say hello– they can stay in their bedroom. 
+We just stayed at the Residence Inn La Mirada for the fifth or sixth time – and it always outperforms our expectations. The staff is terrific. If you need a last-minute toothbrush, dishwashing soap, extra towels, or a new bedspread because someone spilled her drink on it (not naming names), the staff is always happy to accommodate.
+I should note that the dog loves this...I don't know about your family, but when my family gets together for an event or a holiday, scheduling everyone, figuring out the rendezvous point and making it "stressless" are always a challenge. The beauty of Residence Inn La Mirada is it takes all those challenges away. If you bring a dog – the dog needs to be walked. And lo and behold, you can run into family members on your schedule and theirs! Also, with the bountiful and delicious breakfast options – you don't even have to set a time – you will see your family in the dining room - again at your convenience and theirs! We love the Residence Inn La Mirada. It  has become our home away from home in the Los Angeles / Orange County area. We usually try to get one of the bedroom units, and that makes it so easy to accommodate spur of the moment visits from family. If someone isn't ready to go – or come out and say hello– they can stay in their bedroom. We just stayed at the Residence Inn La Mirada for the fifth or sixth time – and it always outperforms our expectations. The staff is terrific. If you need a last-minute toothbrush, dishwashing soap, extra towels, or a new bedspread because someone spilled her drink on it (not naming names), the staff is always happy to accommodate.I should note that the dog loves this property too! It's his personal Disneyland. While we cannot detect any dog smells, his 'search' nose goes into hyper gear when we go on walks here. He doesn't want to leave! Not only will we be back, but we will continue telling whoever will listen what a great place this is.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I don't know about your family, but when my family gets together for an event or a holiday, scheduling everyone, figuring out the rendezvous point and making it "stressless" are always a challenge. The beauty of Residence Inn La Mirada is it takes all those challenges away. If you bring a dog – the dog needs to be walked. And lo and behold, you can run into family members on your schedule and theirs! Also, with the bountiful and delicious breakfast options – you don't even have to set a time – you will see your family in the dining room - again at your convenience and theirs! 
+We love the Residence Inn La Mirada. It  has become our home away from home in the Los Angeles / Orange County area. We usually try to get one of the bedroom units, and that makes it so easy to accommodate spur of the moment visits from family. If someone isn't ready to go – or come out and say hello– they can stay in their bedroom. 
+We just stayed at the Residence Inn La Mirada for the fifth or sixth time – and it always outperforms our expectations. The staff is terrific. If you need a last-minute toothbrush, dishwashing soap, extra towels, or a new bedspread because someone spilled her drink on it (not naming names), the staff is always happy to accommodate.
+I should note that the dog loves this...I don't know about your family, but when my family gets together for an event or a holiday, scheduling everyone, figuring out the rendezvous point and making it "stressless" are always a challenge. The beauty of Residence Inn La Mirada is it takes all those challenges away. If you bring a dog – the dog needs to be walked. And lo and behold, you can run into family members on your schedule and theirs! Also, with the bountiful and delicious breakfast options – you don't even have to set a time – you will see your family in the dining room - again at your convenience and theirs! We love the Residence Inn La Mirada. It  has become our home away from home in the Los Angeles / Orange County area. We usually try to get one of the bedroom units, and that makes it so easy to accommodate spur of the moment visits from family. If someone isn't ready to go – or come out and say hello– they can stay in their bedroom. We just stayed at the Residence Inn La Mirada for the fifth or sixth time – and it always outperforms our expectations. The staff is terrific. If you need a last-minute toothbrush, dishwashing soap, extra towels, or a new bedspread because someone spilled her drink on it (not naming names), the staff is always happy to accommodate.I should note that the dog loves this property too! It's his personal Disneyland. While we cannot detect any dog smells, his 'search' nose goes into hyper gear when we go on walks here. He doesn't want to leave! Not only will we be back, but we will continue telling whoever will listen what a great place this is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r439308209-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>439308209</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Great Alternative to closer Knott's Berry Hotel Offerings</t>
+  </si>
+  <si>
+    <t>This is a great place to stay if you have family traveling.  We had a group of 9 and stayed in two two bedroom units, complete with fireplace, kitchen and living room.  Rooms were well appointed and comfortable with two bathrooms.  Very Good free breakfast</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r417736105-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>417736105</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Very Nice and calm place at reasonable price</t>
+  </si>
+  <si>
+    <t>Good things:1.Low price than downtown LA or Hollywood hotels2.WiFi connectivity and Kitchen 3.Neat and clean roomsBad things:1. Far from LA attractions ,so you need to drive for 1 hour to reach at those places Overall I would recommend staying at this hotel.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r392528453-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>392528453</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Not deserving of the Marriott name</t>
+  </si>
+  <si>
+    <t>It's sad that this location carries the Marriott name. From the unclean room to the carpet lifting from the tile I can not find anything positive to say. Issues were brought to the attention of the office and a shrug of the shoulders and a sorry was it. Phone call and email were made and  sent to the GM and no courtesy call or email back. If you want to waste your money and be in awe how this location carries the Marriott name then have at, but you have been warned. Will never return, will never recommend!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r386478374-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>386478374</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>It's fine</t>
+  </si>
+  <si>
+    <t>Good service, and clean. Breakfast in the morning was nice. Every employee we encountered was pleasant. Rooms were clean and amenities were sufficient. The pool was adequate, small workout room but ok. Right next to highway so be aware.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r383174795-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>383174795</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Very basic and average. Nothing to wow me, asked for coffee to the room and they said they were out... decaf only. Jacuzzi was very cloudy and dingy looking. The bed was comfortable and the water pressure in the shower was great. Shower liner was too short so every time I showered it made a big water mess. TV cut out on me once and wouldn't come back... tried to use Netflix but it always told me to contact front desk before I could sign in but I didn't want to deal with it. On a day I stayed in my room all day, housekeeping was very noisy yelling about what rooms needed to get done. Just average.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very basic and average. Nothing to wow me, asked for coffee to the room and they said they were out... decaf only. Jacuzzi was very cloudy and dingy looking. The bed was comfortable and the water pressure in the shower was great. Shower liner was too short so every time I showered it made a big water mess. TV cut out on me once and wouldn't come back... tried to use Netflix but it always told me to contact front desk before I could sign in but I didn't want to deal with it. On a day I stayed in my room all day, housekeeping was very noisy yelling about what rooms needed to get done. Just average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r358592897-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>358592897</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is not located near much if you want to walk. In and out burgers is around the corner. Our room was labeled as non smoking but did smell a lot like cigarette smoke. Pillows were not very comfortable bed was somewhat. Breakfast was good and always enough for all. It is located in the business district area. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r355705994-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>355705994</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Taco truck at entrance offered neighborhood vibe</t>
+  </si>
+  <si>
+    <t>Since rooms within walking distance of the Anaheim Convention Center were fully booked, I stayed at this Residence Inn which was about 10 miles (20 minutes in normal traffic) away.  The room was fine but the walls were thin, with mechanical and plumbing noise quite noticeable.  In addition to the taco food truck parked at the entrance the night I arrived, there is an In N Out Burger joint and a steakhouse nearby.  The taco truck must have been popular because lawn chairs were set up under the porte cochere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r349832613-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>349832613</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Perfect for long stay</t>
+  </si>
+  <si>
+    <t>The staff is attentive and helpful and it is great to have a kitchen.  Additionally, the breakfast is really good, in and out and elephant bar are next and the freeway is 1 minute away. This hotel is definitely better than the Holiday Inn right next.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r322222104-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>322222104</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel a number of times and are always impressed.  It is great to have a kitchen, pool, work out area and laundry facilities.  Additionally, the staff is attentive and helpful.  One negative is the business area.  I tried to print boarding passes and was unable to do so because of ancient computers and internet connections that were not working.  Fortunately, a front desk manager was able to come to my rescue.  This area is definitely not up to Marriott standards.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r310701874-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>310701874</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Great place for long term visits</t>
+  </si>
+  <si>
+    <t>Traveling to CA on extended business, I wanted to have a room with a kitchen, so I found Residence Inn La Mirada Buena Park and it was near where I needed to work.The rooms are a good size, up to date decor and have a nicely appointed kitchen . The breakfast buffet has hot and cold selections including a make your own waffle bar. Great coffee too. The staff is always polite and helpful. There is no restaurant on site, but there is an In and Out Burger, The Elephant Bar, and Clearman's North Woods Inn withing walking distance. Also a Starbucks &lt; 1 mile away.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r304545465-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>304545465</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Stayed two times now...</t>
+  </si>
+  <si>
+    <t>We really liked this place. Great breakfast. Plenty of things to do including basketball, pool, spa, fire pit and a weight lifting and workout room with tvs. The rooms we had were flawless. Apparently they all include a mini-kitchen.  Plenty of staff in the lobby which is nice.  No restaraunt on grounds but they are next door to in and out burger and They are within walking distance to the elephant bar restaraunt.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r278400966-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>278400966</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Not bad given it's age ...</t>
+  </si>
+  <si>
+    <t>I've stayed at a number of different Residence Inn's and this one is probably one of the oldest I've ever stayed at. This facility is more like an apartment complex than a hotel, with only stairs for the second story rooms. The room was clean and fairly spacious. The one down side, however, was the queen bed - it was very, very firm and seemed to be fairly short, my feet kept hanging off the end and I'm not that tall.Considering how close we were to the freeway, the room was fairly quiet, except for the occasional train whistle (at 4 AM) and the coming and going of neighboring guests.The service was mixed, the week day staff seemed more helpful while the weekend staff not as much. The breakfast was fairly standard and not bad. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at a number of different Residence Inn's and this one is probably one of the oldest I've ever stayed at. This facility is more like an apartment complex than a hotel, with only stairs for the second story rooms. The room was clean and fairly spacious. The one down side, however, was the queen bed - it was very, very firm and seemed to be fairly short, my feet kept hanging off the end and I'm not that tall.Considering how close we were to the freeway, the room was fairly quiet, except for the occasional train whistle (at 4 AM) and the coming and going of neighboring guests.The service was mixed, the week day staff seemed more helpful while the weekend staff not as much. The breakfast was fairly standard and not bad. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r274908116-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>274908116</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Great family hotel</t>
+  </si>
+  <si>
+    <t>Perfect for a family with young children or babies. Our room made it very easy to come back and relax but had plenty of room for our baby to move around. The room had the amenities of home. Very clean, great breakfast. My first experience at this hotel was great!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r274038711-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>274038711</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Excellent family value</t>
+  </si>
+  <si>
+    <t>Knotts Berry Farm and Disneyland only a few minutes away.So nice having a full kitchen in you suite. AND they do your dishes.The free breakfast is nice. Make and build your own waffle is great. Family and friends of all sizes will love the property. Clean heated pool,exercise room, jacuzzi,  fire pit , BBQ, patio, furniture, and benches  for everyone to use. Harbor Freight and IN-N-OUT burger practically in the parking lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r261499553-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>261499553</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residence Inn Buena Park, CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at Residence Inn in Buena Park, CA because our client has a good rate with them. I had not stayed in a RI in a long time and I remembered why. Great spacious clean room but the setting of having to drive to my room is more like a motel or apartment setting, I did not like. Great breakfast but again having to drive to the main building is not what I expect from a hotel. The workout center near the pool was small but did have decent free weights and one elliptical machine.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r259685771-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>259685771</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Do not pick room ending in 814</t>
+  </si>
+  <si>
+    <t>Overall clean room, signs of leaks and some grout on shower tile dark. :( But the most important part, 4 A/C units right next to our window where the bed is, buzzing loud noise alllll night!  Lobby area clean. Fridge also made noise when on.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r255155978-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>255155978</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Convenient for the I-5 traffic jam</t>
+  </si>
+  <si>
+    <t>The suite was bigger than the other Residence Inn in the area (Arcadia), but without a full oven. You cant help but compare it with the other one, not as green, better gym and pool, better reception, more concrete and car parking. Staff were friendly and reception answered calls promptly. apart from that its all about getting away from there and coming back later, so as its on the I-5 with never ending road improvements just up the road, its perhaps not as convenient as the location suggests. all-in-all, good enough to stay there again, which I will be next week!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r247086215-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>247086215</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Cheap, clean, and friendly</t>
+  </si>
+  <si>
+    <t>This hotel is great if you are on a budget. The room was a good size and contains a kitchen area with a fridge/freezer/stove. The breakfast buffet was tasty and there was a lot of choices. Rooms are away from the reception area, so they look more like mini apartments than hotel rooms. You can walk to food stores that are situated across the street, and you can even provide the hotel staff with a list of groceries that they will get for you and unpack in your fridge the next day during room service (free of charge). The only negative thing I have to say about this hotel is in regards to parking. Even though the hotel grounds contain a lot of parking spaces for guests, if you return to your hotel late at night, you will have to park a long way away from your hotel room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This hotel is great if you are on a budget. The room was a good size and contains a kitchen area with a fridge/freezer/stove. The breakfast buffet was tasty and there was a lot of choices. Rooms are away from the reception area, so they look more like mini apartments than hotel rooms. You can walk to food stores that are situated across the street, and you can even provide the hotel staff with a list of groceries that they will get for you and unpack in your fridge the next day during room service (free of charge). The only negative thing I have to say about this hotel is in regards to parking. Even though the hotel grounds contain a lot of parking spaces for guests, if you return to your hotel late at night, you will have to park a long way away from your hotel room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r243558174-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>243558174</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay near Disney</t>
+  </si>
+  <si>
+    <t>I was in LA and want to stay near disney. Decided for a 2 bedroom apt at residence inn La mirada. Its about 6km from Disney. But no worries they have shuttle to Disney And anywhere within 5 km. I have special requests and the hotel kindly gave my request. The breakfast was great. The people are friendly nice and polite. Citadel shopping ouletJust about 10-15 min drive.So lots of fun</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r242268956-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>242268956</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Dog-gone great Thanksgiving at Residence Inn La Mirada</t>
+  </si>
+  <si>
+    <t>We loved the pet-friendly accommodations at Residence Inn La Mirada. Having a real kitchen (although small) was so fantastic. Having 2 separate bedrooms and baths gave us a nice amount of space. Best of all was that the hotel is pet friendly and accommodates our other family member. Not only did he have a good time, he thought the smells down by our area were amazing. It was like his own personal Disneyland. For non-pet people, not to worry - there is a separate building for the pet folks. Plus, the fee covers deep cleaning of the unit after every guest. There were NO smells in our unit at all. We loved the hot - REAL - breakfast and the focus on customer service. We hosted Thanksgiving with local family in our room, and the staff loaned us a portable banquet table and chairs to make it easy. Even with a table set up, our unit did not feel cramped. We brought in a complete Thanksgiving dinner from Mimi's Cafe that was 5 minutes away - also excellent. The room cleanliness was perfect, the beds super comfortable, and the style of the unit was modern and up to date. The location was terrific with easy access to I-5, yet in an industrial section, so it was very quiet. But VERY close to ample shopping, plus easy to get to Knott's Berry Farm or Disneyland. We WILL be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We loved the pet-friendly accommodations at Residence Inn La Mirada. Having a real kitchen (although small) was so fantastic. Having 2 separate bedrooms and baths gave us a nice amount of space. Best of all was that the hotel is pet friendly and accommodates our other family member. Not only did he have a good time, he thought the smells down by our area were amazing. It was like his own personal Disneyland. For non-pet people, not to worry - there is a separate building for the pet folks. Plus, the fee covers deep cleaning of the unit after every guest. There were NO smells in our unit at all. We loved the hot - REAL - breakfast and the focus on customer service. We hosted Thanksgiving with local family in our room, and the staff loaned us a portable banquet table and chairs to make it easy. Even with a table set up, our unit did not feel cramped. We brought in a complete Thanksgiving dinner from Mimi's Cafe that was 5 minutes away - also excellent. The room cleanliness was perfect, the beds super comfortable, and the style of the unit was modern and up to date. The location was terrific with easy access to I-5, yet in an industrial section, so it was very quiet. But VERY close to ample shopping, plus easy to get to Knott's Berry Farm or Disneyland. We WILL be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r220374014-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>220374014</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Awesome, 5 star stay!</t>
+  </si>
+  <si>
+    <t>My boyfriend, 3 cousins, and I stayed at this Residence Inn last weekend (8/1-8/4) during an event going on at the Whittier Narrows Recreation Area. This hotel was the perfect place to be because it wasn't too far from the venue, plus there's an In N Out next door!
+We're from NorCal so we had to call ahead and let them know that we were running a bit late getting there and the person at the front desk had us approved for late check-in. Upon check in, we were greeted by a man who was very nice and informative. He even asked us if we were there for Beyonce or the Hard Summer event. If we all knew Beyonce was in town, we would've just gone to that! The lobby is beautiful and clean.
+We booked our room through Expedia and reserved the 2 bedroom suite. Our room was at the very last building (522) on the top floor. When we got to our room, we were amazed and in love! Our room literally looked like the apartment my cousins and I have been dreaming of ever since we were younger. The kitchen was stocked with utensils, plates, coffee maker, microwave, fridge, dish washing material, popcorn, hot chocolate, etc. The living room had a pull out bed from the couch, a fireplace, TV, and a desk. Room #1 was where my boyfriend and I stayed and it was so comfortable!...My boyfriend, 3 cousins, and I stayed at this Residence Inn last weekend (8/1-8/4) during an event going on at the Whittier Narrows Recreation Area. This hotel was the perfect place to be because it wasn't too far from the venue, plus there's an In N Out next door!We're from NorCal so we had to call ahead and let them know that we were running a bit late getting there and the person at the front desk had us approved for late check-in. Upon check in, we were greeted by a man who was very nice and informative. He even asked us if we were there for Beyonce or the Hard Summer event. If we all knew Beyonce was in town, we would've just gone to that! The lobby is beautiful and clean.We booked our room through Expedia and reserved the 2 bedroom suite. Our room was at the very last building (522) on the top floor. When we got to our room, we were amazed and in love! Our room literally looked like the apartment my cousins and I have been dreaming of ever since we were younger. The kitchen was stocked with utensils, plates, coffee maker, microwave, fridge, dish washing material, popcorn, hot chocolate, etc. The living room had a pull out bed from the couch, a fireplace, TV, and a desk. Room #1 was where my boyfriend and I stayed and it was so comfortable! The bed was so soft, as well as the pillows. Both rooms have mirror closets so it was convenient for us girls to do our makeup! The bathroom for room #1 was very clean and simple. Room #2 was exactly the same, except it had double doors and a balcony! The bathroom was exactly the same.We were very prepared when coming to this hotel. We also brought our own inflatable bed, plastic bags, and towels. But Residence Inn did such an amazing job when it comes to accommodating their guests and hotel rooms! Our room was also stocked with extra blankets and pillows in the closet next to the front door. A safe, an ironing board, and an iron are included in that little closet.We didn't get to try out the pool but it seemed like there was always people there. This hotel is pet friendly, so it was always nice to see other guests walking their dogs in the morning.Only thing was that inconvenient for us was that the lobby was such a long walk! So if you wanted their continental breakfast in the morning, the distance from our room to the lobby was a little bit of a walk. But we didn't walk at all, we would always drive. That's laziness for ya! Not to mention, breakfast was delicious! So many selections. If you wanna skip the free breakfast, there's also many restaurants nearby. There's an Elephant Bar on the same street. ;)Express check-out was a breeze. They left us a letter on our door saying we could just call front desk and let them know we're checking out and that we leave our room keys near the phone. Thank you so much Residence Inn La Mirada for our stay, we will definitely be coming back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My boyfriend, 3 cousins, and I stayed at this Residence Inn last weekend (8/1-8/4) during an event going on at the Whittier Narrows Recreation Area. This hotel was the perfect place to be because it wasn't too far from the venue, plus there's an In N Out next door!
+We're from NorCal so we had to call ahead and let them know that we were running a bit late getting there and the person at the front desk had us approved for late check-in. Upon check in, we were greeted by a man who was very nice and informative. He even asked us if we were there for Beyonce or the Hard Summer event. If we all knew Beyonce was in town, we would've just gone to that! The lobby is beautiful and clean.
+We booked our room through Expedia and reserved the 2 bedroom suite. Our room was at the very last building (522) on the top floor. When we got to our room, we were amazed and in love! Our room literally looked like the apartment my cousins and I have been dreaming of ever since we were younger. The kitchen was stocked with utensils, plates, coffee maker, microwave, fridge, dish washing material, popcorn, hot chocolate, etc. The living room had a pull out bed from the couch, a fireplace, TV, and a desk. Room #1 was where my boyfriend and I stayed and it was so comfortable!...My boyfriend, 3 cousins, and I stayed at this Residence Inn last weekend (8/1-8/4) during an event going on at the Whittier Narrows Recreation Area. This hotel was the perfect place to be because it wasn't too far from the venue, plus there's an In N Out next door!We're from NorCal so we had to call ahead and let them know that we were running a bit late getting there and the person at the front desk had us approved for late check-in. Upon check in, we were greeted by a man who was very nice and informative. He even asked us if we were there for Beyonce or the Hard Summer event. If we all knew Beyonce was in town, we would've just gone to that! The lobby is beautiful and clean.We booked our room through Expedia and reserved the 2 bedroom suite. Our room was at the very last building (522) on the top floor. When we got to our room, we were amazed and in love! Our room literally looked like the apartment my cousins and I have been dreaming of ever since we were younger. The kitchen was stocked with utensils, plates, coffee maker, microwave, fridge, dish washing material, popcorn, hot chocolate, etc. The living room had a pull out bed from the couch, a fireplace, TV, and a desk. Room #1 was where my boyfriend and I stayed and it was so comfortable! The bed was so soft, as well as the pillows. Both rooms have mirror closets so it was convenient for us girls to do our makeup! The bathroom for room #1 was very clean and simple. Room #2 was exactly the same, except it had double doors and a balcony! The bathroom was exactly the same.We were very prepared when coming to this hotel. We also brought our own inflatable bed, plastic bags, and towels. But Residence Inn did such an amazing job when it comes to accommodating their guests and hotel rooms! Our room was also stocked with extra blankets and pillows in the closet next to the front door. A safe, an ironing board, and an iron are included in that little closet.We didn't get to try out the pool but it seemed like there was always people there. This hotel is pet friendly, so it was always nice to see other guests walking their dogs in the morning.Only thing was that inconvenient for us was that the lobby was such a long walk! So if you wanted their continental breakfast in the morning, the distance from our room to the lobby was a little bit of a walk. But we didn't walk at all, we would always drive. That's laziness for ya! Not to mention, breakfast was delicious! So many selections. If you wanna skip the free breakfast, there's also many restaurants nearby. There's an Elephant Bar on the same street. ;)Express check-out was a breeze. They left us a letter on our door saying we could just call front desk and let them know we're checking out and that we leave our room keys near the phone. Thank you so much Residence Inn La Mirada for our stay, we will definitely be coming back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r216825721-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>216825721</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>I love Residence Inn</t>
+  </si>
+  <si>
+    <t>We have stayed in Residence Inn in several different cities, and this one was by far the best one yet. The two bedroom penthouse is upstairs with no elevator, but the staff brought up all our baggage for us.The kitchen floor was sticky, but cleaned as soon as I told them about it.We were at the very end of a two week trip, and this was a welcome last night of our journey.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r211182386-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>211182386</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Residence Inn Great Employees</t>
+  </si>
+  <si>
+    <t>The property can be difficult to get too, so do some research as I ended up on the wrong side of the Motorway and although I could see the property it took me a while to find the right road to it. Saying that I arrived from Long Beach Airport and avoided the Motorways, but I think its more accessible from the slip roads.
+I found the hotel to be very nice, modern and clean with ample parking and the rooms where comfortable and had eveything I needed. I was given a ground floor room and there wasnt an issue with noise from the motorway or neighbours but perhaps the hotel wasnt full to capacity as it was a Thursday night.
+The hotel has a very nice pool and spa area and a laundry area and small gym. I used the laundry area and eveything worked fine.
+Credit has to go to all the staff that I came into contact with throughout my stay. Kudos to the gentleman who looks after the breakfast area and replenishes all the stock, I believe he was called Timothy, he was such a happy chap and made the breakfast a very nice experience to start the day. I particularly would like to thank Trevor on the front desk who kindly helped me out of a sticky situation with my credit card company, he went above and beyond the call of duty as he could...The property can be difficult to get too, so do some research as I ended up on the wrong side of the Motorway and although I could see the property it took me a while to find the right road to it. Saying that I arrived from Long Beach Airport and avoided the Motorways, but I think its more accessible from the slip roads.I found the hotel to be very nice, modern and clean with ample parking and the rooms where comfortable and had eveything I needed. I was given a ground floor room and there wasnt an issue with noise from the motorway or neighbours but perhaps the hotel wasnt full to capacity as it was a Thursday night.The hotel has a very nice pool and spa area and a laundry area and small gym. I used the laundry area and eveything worked fine.Credit has to go to all the staff that I came into contact with throughout my stay. Kudos to the gentleman who looks after the breakfast area and replenishes all the stock, I believe he was called Timothy, he was such a happy chap and made the breakfast a very nice experience to start the day. I particularly would like to thank Trevor on the front desk who kindly helped me out of a sticky situation with my credit card company, he went above and beyond the call of duty as he could see I was getting stressed with my c/c provider whereby they had locked my account because I had travelled out of the UK, he helped me fax over my passport and copy of my card back to the UK for verification.Overall, I would recommend the RC La Mirada to anyone, its close to Beach Blvd whereby you will find numerous eateries and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The property can be difficult to get too, so do some research as I ended up on the wrong side of the Motorway and although I could see the property it took me a while to find the right road to it. Saying that I arrived from Long Beach Airport and avoided the Motorways, but I think its more accessible from the slip roads.
+I found the hotel to be very nice, modern and clean with ample parking and the rooms where comfortable and had eveything I needed. I was given a ground floor room and there wasnt an issue with noise from the motorway or neighbours but perhaps the hotel wasnt full to capacity as it was a Thursday night.
+The hotel has a very nice pool and spa area and a laundry area and small gym. I used the laundry area and eveything worked fine.
+Credit has to go to all the staff that I came into contact with throughout my stay. Kudos to the gentleman who looks after the breakfast area and replenishes all the stock, I believe he was called Timothy, he was such a happy chap and made the breakfast a very nice experience to start the day. I particularly would like to thank Trevor on the front desk who kindly helped me out of a sticky situation with my credit card company, he went above and beyond the call of duty as he could...The property can be difficult to get too, so do some research as I ended up on the wrong side of the Motorway and although I could see the property it took me a while to find the right road to it. Saying that I arrived from Long Beach Airport and avoided the Motorways, but I think its more accessible from the slip roads.I found the hotel to be very nice, modern and clean with ample parking and the rooms where comfortable and had eveything I needed. I was given a ground floor room and there wasnt an issue with noise from the motorway or neighbours but perhaps the hotel wasnt full to capacity as it was a Thursday night.The hotel has a very nice pool and spa area and a laundry area and small gym. I used the laundry area and eveything worked fine.Credit has to go to all the staff that I came into contact with throughout my stay. Kudos to the gentleman who looks after the breakfast area and replenishes all the stock, I believe he was called Timothy, he was such a happy chap and made the breakfast a very nice experience to start the day. I particularly would like to thank Trevor on the front desk who kindly helped me out of a sticky situation with my credit card company, he went above and beyond the call of duty as he could see I was getting stressed with my c/c provider whereby they had locked my account because I had travelled out of the UK, he helped me fax over my passport and copy of my card back to the UK for verification.Overall, I would recommend the RC La Mirada to anyone, its close to Beach Blvd whereby you will find numerous eateries and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r199781963-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>199781963</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Mediocre Residence Inn</t>
+  </si>
+  <si>
+    <t>The good: Location (Near Knotts), rate, ease of check-in, size of room, very clean.Did not fall down during earthquake!!!The not-so-good: Poor quality mattress.The bad: No black out curtain in one of the rooms. Bright parking lot.Breakfast chaos - terrible layout, and staff seemed more concerned about chatting in the back room than keeping the buffet filled. (ex. eggs and sausage were both served, but never at the same time.)</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r199563351-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>199563351</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Good motel - earthquake proof!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last weekend when the 5.1 earthquake hit.  The hotel was about 15 miles from the epicenter.  It rolled and shook but held up well!  We had a two bedroom suite and a studio suite.  All were spacious and comfortable and clean.  We used the pool one evening and had breakfast both mornings we were there.  It was busy for breakfast and sometimes we had to wait for hot foods to be replenished but I appreciated having eggs and protein available as opposed to just heavy carbs.  My kids loved the waffle station!  We were there to go to Knott's Berry Farm which was a five minute drive from the hotel.  We would book again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last weekend when the 5.1 earthquake hit.  The hotel was about 15 miles from the epicenter.  It rolled and shook but held up well!  We had a two bedroom suite and a studio suite.  All were spacious and comfortable and clean.  We used the pool one evening and had breakfast both mornings we were there.  It was busy for breakfast and sometimes we had to wait for hot foods to be replenished but I appreciated having eggs and protein available as opposed to just heavy carbs.  My kids loved the waffle station!  We were there to go to Knott's Berry Farm which was a five minute drive from the hotel.  We would book again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r198654270-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>198654270</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Good Residence Inn, could be better</t>
+  </si>
+  <si>
+    <t>I stay at this Residence Inn when I travel to LA because it is 5 minutes from the office I work in, and I appreciate the convenience.  The main thing I don't like about this hotel is the layout, as I prefer the traditional hotel layout, not the spreadout "apartment building complex" layout that they have here.  As a woman who travels by herself, this doesn't always lend to feeling safe.  At any rate, that is what it is, just be aware if you have the same misgivings.  At check in, I didn't feel like the gentleman that checked me in was very customer-service oriented and wasn't very welcoming.  
+Pros:  The rooms are spacious and have a mini kitchen to be able to prepare some food, as well as a full-size refrigerator/freezer.  If you are staying for a full week and want to have some meals in your room, this is ideal.  I don't like going to the main building for breakfast, so I am able to have that in my room.  Because you are NOT in a typical "hotel" layout, you generally have less noise around you, since you only have someone above you and maybe sharing one wall beside you, so unless you have someone upstairs from you who likes to do aerobics, you don't hear a lot of noise.
+Cons:  I'm six feet tall and the shower head sits at nose level for me.  There is a...I stay at this Residence Inn when I travel to LA because it is 5 minutes from the office I work in, and I appreciate the convenience.  The main thing I don't like about this hotel is the layout, as I prefer the traditional hotel layout, not the spreadout "apartment building complex" layout that they have here.  As a woman who travels by herself, this doesn't always lend to feeling safe.  At any rate, that is what it is, just be aware if you have the same misgivings.  At check in, I didn't feel like the gentleman that checked me in was very customer-service oriented and wasn't very welcoming.  Pros:  The rooms are spacious and have a mini kitchen to be able to prepare some food, as well as a full-size refrigerator/freezer.  If you are staying for a full week and want to have some meals in your room, this is ideal.  I don't like going to the main building for breakfast, so I am able to have that in my room.  Because you are NOT in a typical "hotel" layout, you generally have less noise around you, since you only have someone above you and maybe sharing one wall beside you, so unless you have someone upstairs from you who likes to do aerobics, you don't hear a lot of noise.Cons:  I'm six feet tall and the shower head sits at nose level for me.  There is a strange noise coming from my sink, that makes me wonder if Zool is sending the Keymaster to my room (Ghostbusters reference).  Because of the outside access, you will likely find some bugs in your room.  Not an infestation, hopefully, but I've found a couple already.  Overall like I said, I stay here for the convenience to my work site when I'm traveling.  The rooms are nice enough, but do show some wear and tear, but that's pretty standard in most hotels I've stayed in.  I would give this about a 3.5 stars overall.  I didn't partake in the manager's reception at night (Monday - Thursday) or the breakfast, so I can't comment on that, but other reviewers have.  I think this hotel is ideal for a business stay, but wouldn't bring the family to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this Residence Inn when I travel to LA because it is 5 minutes from the office I work in, and I appreciate the convenience.  The main thing I don't like about this hotel is the layout, as I prefer the traditional hotel layout, not the spreadout "apartment building complex" layout that they have here.  As a woman who travels by herself, this doesn't always lend to feeling safe.  At any rate, that is what it is, just be aware if you have the same misgivings.  At check in, I didn't feel like the gentleman that checked me in was very customer-service oriented and wasn't very welcoming.  
+Pros:  The rooms are spacious and have a mini kitchen to be able to prepare some food, as well as a full-size refrigerator/freezer.  If you are staying for a full week and want to have some meals in your room, this is ideal.  I don't like going to the main building for breakfast, so I am able to have that in my room.  Because you are NOT in a typical "hotel" layout, you generally have less noise around you, since you only have someone above you and maybe sharing one wall beside you, so unless you have someone upstairs from you who likes to do aerobics, you don't hear a lot of noise.
+Cons:  I'm six feet tall and the shower head sits at nose level for me.  There is a...I stay at this Residence Inn when I travel to LA because it is 5 minutes from the office I work in, and I appreciate the convenience.  The main thing I don't like about this hotel is the layout, as I prefer the traditional hotel layout, not the spreadout "apartment building complex" layout that they have here.  As a woman who travels by herself, this doesn't always lend to feeling safe.  At any rate, that is what it is, just be aware if you have the same misgivings.  At check in, I didn't feel like the gentleman that checked me in was very customer-service oriented and wasn't very welcoming.  Pros:  The rooms are spacious and have a mini kitchen to be able to prepare some food, as well as a full-size refrigerator/freezer.  If you are staying for a full week and want to have some meals in your room, this is ideal.  I don't like going to the main building for breakfast, so I am able to have that in my room.  Because you are NOT in a typical "hotel" layout, you generally have less noise around you, since you only have someone above you and maybe sharing one wall beside you, so unless you have someone upstairs from you who likes to do aerobics, you don't hear a lot of noise.Cons:  I'm six feet tall and the shower head sits at nose level for me.  There is a strange noise coming from my sink, that makes me wonder if Zool is sending the Keymaster to my room (Ghostbusters reference).  Because of the outside access, you will likely find some bugs in your room.  Not an infestation, hopefully, but I've found a couple already.  Overall like I said, I stay here for the convenience to my work site when I'm traveling.  The rooms are nice enough, but do show some wear and tear, but that's pretty standard in most hotels I've stayed in.  I would give this about a 3.5 stars overall.  I didn't partake in the manager's reception at night (Monday - Thursday) or the breakfast, so I can't comment on that, but other reviewers have.  I think this hotel is ideal for a business stay, but wouldn't bring the family to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r197111413-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>197111413</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>A Very Nice Hotel with Nice Staff!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel over a 100 nights over the last three years.  Its located in La Mirada, CA which is about 15 minutes from the Disney complex and 25 minutes from downtown L.A.    The hotel attracts a mixture of people, but primarily business people and those displaced from their home in need of long term accommodations.   They offer a very nice evening social hour and complimentary dinner on Monday through Thursday and a free breakfast in the morning.   The rooms were recently remodeled and are very nice.   The staff is very, very nice.   You would think you were in Texas vs. California.   Its right off the 5 freeway, but if you stay in the back of the property in the 3-7 buildings, you will hear very little, if any noise from the freeway.    As with all Residence Inn's, you always want to be on the second floor.   Its not a fancy place, but its very clean and a very good value.   I don't think of this as a vacation spot, but if you are here on business or an extended stay you will be pleased with this hotel and their amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel over a 100 nights over the last three years.  Its located in La Mirada, CA which is about 15 minutes from the Disney complex and 25 minutes from downtown L.A.    The hotel attracts a mixture of people, but primarily business people and those displaced from their home in need of long term accommodations.   They offer a very nice evening social hour and complimentary dinner on Monday through Thursday and a free breakfast in the morning.   The rooms were recently remodeled and are very nice.   The staff is very, very nice.   You would think you were in Texas vs. California.   Its right off the 5 freeway, but if you stay in the back of the property in the 3-7 buildings, you will hear very little, if any noise from the freeway.    As with all Residence Inn's, you always want to be on the second floor.   Its not a fancy place, but its very clean and a very good value.   I don't think of this as a vacation spot, but if you are here on business or an extended stay you will be pleased with this hotel and their amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r196688449-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>196688449</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Great interiors, not the greatest location</t>
+  </si>
+  <si>
+    <t>The rooms of this hotel are very nice! Two-room suites that were recently udated, it seems. The living area has a full kitchen with a tv seating area and couch. The bedrooms are fairly large.The staff in this hotel was very friendly. The breakfast was pretty good for continental. Eggs, canadian bacon, potatoes, cereals, waffles, etc.The only issue is its location. Not the best of areas and it is RIGHT off the freeway which makes it a bit noisy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r195246095-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>195246095</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel with Planty of Amenities</t>
+  </si>
+  <si>
+    <t>I stayed at this Residence Inn for only one night during a business trip. It seemed to be a newer hotel with a large room to include a kitchen and TV room. It was in a very convenient location and he hotel staff was excellent. Room was very well laid out and easy to navigate.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r189516191-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>189516191</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>I recently stayed here during christmas break.The room was studio with king bed and kitchen.The room was neatly kept, and everything was good about the room.The sofa bed was very comfortable.Highlight: the breakfast was too good.Nice to have: in room laundry.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r187752945-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>187752945</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is more than excellent!!!! Staff is great. Rooms are modern and super clean. Water pressure in shower is awesome. Breakfast is a buffet instead of a continental breakfast.  I will look for a Residence Inn every where I go. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r186689032-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>186689032</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>HORRIBLE!</t>
+  </si>
+  <si>
+    <t>This is a horrible hotel!  The check in was unprofessional, the rooms were archaic, the breakfast they serve is stail, precooked, and mushy even the coffe was burnt!  Oh, and don't ask for help they will stare at you like a deer in the headlights.....The property was similar to a low income housing community.  For the money being spend it makes me wonder were it's going because it certainly is not going to improvements with the property or staff.GOOD LUCK!!!!!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r183591031-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>183591031</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Comfortable!</t>
+  </si>
+  <si>
+    <t>The suites were bigger than I expected: a living area, kitchen (with fridge, microwave, silverware, cutlery ...), sleeping area, and bathroom. Breakfast was quite decent and sufficient for a good start to the day: both  hot and cold, including eggs, bacon, oatmeal, fruit, yogurt, ... Each building has about four suites, so the isolation provides some quiet as well. Easy access to freeway and restaurants around. There was a happy hour, but I didn't take advantage of that.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r179825940-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>179825940</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>No comfort</t>
+  </si>
+  <si>
+    <t>Most uncomfortable stay I have ever had at a residence inn.  Take my advice and enjoy your sleep somewhere else.  The light sensors in the room are very sensitive, the slightest turn will activate the lights.  Therefore, the lights come on every hour of the night. No sound proof rooms, you are forced to hear your neighbors every move.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r175812818-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>175812818</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Friendly Staff!</t>
+  </si>
+  <si>
+    <t>We stayed here one night while visiting some family in the area. This place is located right across from an In-N-Out Burger - you can't beat that! We had our one year old daughter with us on the trip and the staff was accommodating. They offered to help us with the pac-n-play and had it delivered to our room before we even arrived so it was waiting for us on arrival. This was a huge help because we arrived late in the night, and our daughter was able to go right to sleep with no trouble. Breakfast was great and so was our whole experience. Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We stayed here one night while visiting some family in the area. This place is located right across from an In-N-Out Burger - you can't beat that! We had our one year old daughter with us on the trip and the staff was accommodating. They offered to help us with the pac-n-play and had it delivered to our room before we even arrived so it was waiting for us on arrival. This was a huge help because we arrived late in the night, and our daughter was able to go right to sleep with no trouble. Breakfast was great and so was our whole experience. Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r162122939-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>162122939</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>clean, convenient, friendly</t>
+  </si>
+  <si>
+    <t>I have stayed at several Residence Inns, mainly when on business.  This one is well kept, the staff friendly, and in a good location.  Our room had a fireplace, which was a nice amenity.  The WiFi worked well, and the breakfast was good.  These Marriott properties have amenities that other "upscale" hotels charge extra for.  I do not see the advantage of staying elsewhere.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r160017130-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>160017130</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>We've Come Back Again and Again</t>
+  </si>
+  <si>
+    <t>We stayed at this property many many times (77) when on business and decided to stay on a leisure trip.  All rooms have been remodeled but we saw nothing wrong with the rooms previously.  We have usually stayed in a studio but also a one bedroom.  The staff upon check in, Susan, was great and good to see Timothy at our breakfasts.  We also enjoyed the social hour and is one reason we stay at Residence Inn.  The beds are great as well.  If back in the area we will most likely stay again.   We stayed one night in February and came back for three more in March.  We did have a slight problem after checking out but was resolved quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this property many many times (77) when on business and decided to stay on a leisure trip.  All rooms have been remodeled but we saw nothing wrong with the rooms previously.  We have usually stayed in a studio but also a one bedroom.  The staff upon check in, Susan, was great and good to see Timothy at our breakfasts.  We also enjoyed the social hour and is one reason we stay at Residence Inn.  The beds are great as well.  If back in the area we will most likely stay again.   We stayed one night in February and came back for three more in March.  We did have a slight problem after checking out but was resolved quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r158987170-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>158987170</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Decent renovated property</t>
+  </si>
+  <si>
+    <t>This is an older residence inn but had a good renovation. Staff upon check in were friendly and efficient. The location is close to freeway which might be a blessing or a curse depending on your viewpoint.  Request a room near the rear of the complex.  Room size was great and I had plenty of room for work.  I would stay again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r153726651-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>153726651</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Great Renovation, Great Breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here after going to the Pirate Dinner Experience in Buena Park. The hotel is about 5 minutes from the Pirate Dinner Show, Midevil Times, etc. The hotel is located right off the 5 freeway and is directly across the street from the freeway, but freeway noise wasn't an issue to us - we could hardly hear it. The room was a queen with a sofa bed. The sofa was very, very small and was intended to sleep one person. We fit our two kids but only because they're very small. The room was very nice with mini kitchen facilities - not the norm for hotels but we loved it. Everything was renovated very well down to the shower curtain. Breakfast was great and offered more hot food than I was expecting, even make your own omelets. There is an evening reception as well but it's only Monday-Thursday. We didn't take part in it as we were there on a Friday/Saturday. Nice staff, nice pool/spa area. Gym was good and open 24 hours, laundry adjacent to gym and nice for a longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here after going to the Pirate Dinner Experience in Buena Park. The hotel is about 5 minutes from the Pirate Dinner Show, Midevil Times, etc. The hotel is located right off the 5 freeway and is directly across the street from the freeway, but freeway noise wasn't an issue to us - we could hardly hear it. The room was a queen with a sofa bed. The sofa was very, very small and was intended to sleep one person. We fit our two kids but only because they're very small. The room was very nice with mini kitchen facilities - not the norm for hotels but we loved it. Everything was renovated very well down to the shower curtain. Breakfast was great and offered more hot food than I was expecting, even make your own omelets. There is an evening reception as well but it's only Monday-Thursday. We didn't take part in it as we were there on a Friday/Saturday. Nice staff, nice pool/spa area. Gym was good and open 24 hours, laundry adjacent to gym and nice for a longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r152588374-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>152588374</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>This place is really nice.. We were visiting Disney and stayed here and it was a perfect place for people who rent a car. It is right near the highway, so drive to disney was like 15-20 minutes both ways.. The morning breakfast was amazing. They had so many options. Their Grocery shopping service is awesome as well..  A nice stay and a beautiful place.. The kitchen is well equipped and is good for families with kids..</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r151324436-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>151324436</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>Nice extras</t>
+  </si>
+  <si>
+    <t>Stayed 1/31 to 2/1 for business.  Check in was quick and efficient, room was clean and the bed was comfy.  Extras:  good water pressure in the shower, the fireplace is stocked with one of those flame logs, really nice slab granite in the kitchenette (fridge/2 burners, microwave).  Breakfast was very busy with some odd people stockpiling food, one morning there was no meat, the other the meat was cold.  Relied on the shuttle to get to/from work in the morning, which saved some $$ and the drivers were always really nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r145078374-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>145078374</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Just a nice place to stay</t>
+  </si>
+  <si>
+    <t>The staff is very professional and the hotel is very clean and safe. I would absolutely stay here again. We stayed  here with other family and were not disappointed. The free breakfast was hot and well prepared. The provided a wide selection  of food choices.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r144676114-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>144676114</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel but Pricey</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights on business. This is one of the few marriott hotel that comes with a Kitchen. It's a little bit pricey with rate more than $100 per night but it is very comfortable. Especially the breakfast. The hotel also serves light dinner monday through thursday which is good enough for someone on business, it works for families too.. It is very close to I5, so the moment you step out of the hotel, you get the roaring noise of the highway. Also, AT&amp;T signal strength is very bad inside and even outside the I get hardly a point or 2. So I had difficulties attending to conference calls though this is not something with the hotel but still people on business who has AT&amp;T connection need to watch out for.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights on business. This is one of the few marriott hotel that comes with a Kitchen. It's a little bit pricey with rate more than $100 per night but it is very comfortable. Especially the breakfast. The hotel also serves light dinner monday through thursday which is good enough for someone on business, it works for families too.. It is very close to I5, so the moment you step out of the hotel, you get the roaring noise of the highway. Also, AT&amp;T signal strength is very bad inside and even outside the I get hardly a point or 2. So I had difficulties attending to conference calls though this is not something with the hotel but still people on business who has AT&amp;T connection need to watch out for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r144126154-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>144126154</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Tis location was quite nice. It looked like it may have been a refurbished apartment complex since the layout for a Residence Inn was unusual.  Staff did a great job. The room was well stocked and clean. Loved the set up of the kitchen. It would be a very comfortable place for an extended stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r137667969-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>137667969</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Not Expensive/Plenty of Room/Nice Staff</t>
+  </si>
+  <si>
+    <t>Okay...don't let the 3 fool you...it was probably more like a 3.75.  The staff was super nice, the rooms were pretty clean (the walls could use a little cleaning) but bathrooms were cleaned better than mine at home. The staff was very professional and nice.  For the money....I think it was the way to go.  We could have stayed in the LA area but we would have paid double the price and have to pay for parking and all been in a little tiny room. Free breakfast was ok but not great. Overall for a quick inexpensive get away....It was worth it.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r132666575-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>132666575</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>2 star hotel, 5 star staff</t>
+  </si>
+  <si>
+    <t>The building was just okay. Although the rooms were recently renovated, it was still just mediocre. But I found each and every staff member to be great. They bent over backwards for us and were pleasant and accommodating. The hotel is still in the process of renovating the lobby-- which is definitely needed, but it was pretty hectic. They serve food and free drinks (including beer and wine) during the week-- it was okay and definitely edible. I didn't have the breakfast, so I cannot comment on it. Overall, a pleasant stay.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r131576524-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>131576524</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Average property, undergoing construction.</t>
+  </si>
+  <si>
+    <t>The property is conveniently located and the staff is friendly and accommodating.  They are in the process of major renovation so the parking is limited with dumpsters, trailers, etc.  This is a problem if you return late to the property and there is no parking available.  The room was clean and had recently been renovated.  There is no elevator for the second floor room, be aware if you have heavy luggage.  The breakfast was average, nothing special.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r122920829-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>122920829</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>Convenient, friendly Marriott Style</t>
+  </si>
+  <si>
+    <t>I picked this property for its location to my business meetings and it worked great. Suites are large, clean and comfortable, first night includes a presto log for the fireplace! Theme evenings of free food, mine was pizza, wings, salad, veggies, brownies, beer, wine, nice bonus. Breakfast just so so but I am picky - included in rate. Staff friendly and eager to help. Several good restaraunts less than a mile away. I recommend this for business or pleasure stay.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r122684494-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>122684494</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>"Roaches. Really"?</t>
+  </si>
+  <si>
+    <t>I am loyal to staying at Marriott branded hotels when I travel. I travel at least once a month throughout the year. This was the first time staying at this hotel in Buena Park. First of all, the hotel looked like an apartment complex. When I walked into my room, I was totally disappointed at the "1970's" decor. Old, old, old.  About 11:30pm, I go to plug my cell phone up in the kitchen and what scurried across the counter? You guessed it; a ROACH!  I was livid and immediately called the front desk. The clerk told me that someone would be there shortly. "Shortly" turned into 20 minutes. In walks the clerk with a can of RAID. She asks me where the roach is and I reply it is going in and out of the microwave. The clerk sprayed the counter with raid and then asked me if I was going to use the microwave. What!? Of course not manager was on site that night. The clerk took the microwave and threw it in the garbage can in front of my room.  Needless to say, I could not sleep after that. I was constantly checking my luggage to make sure I would not be carrying any extra travelers home. I was getting dressed the next morning while talking to my husband on my cell and what did I see scurry across the kitchen wall? Another ROACH! I will never...I am loyal to staying at Marriott branded hotels when I travel. I travel at least once a month throughout the year. This was the first time staying at this hotel in Buena Park. First of all, the hotel looked like an apartment complex. When I walked into my room, I was totally disappointed at the "1970's" decor. Old, old, old.  About 11:30pm, I go to plug my cell phone up in the kitchen and what scurried across the counter? You guessed it; a ROACH!  I was livid and immediately called the front desk. The clerk told me that someone would be there shortly. "Shortly" turned into 20 minutes. In walks the clerk with a can of RAID. She asks me where the roach is and I reply it is going in and out of the microwave. The clerk sprayed the counter with raid and then asked me if I was going to use the microwave. What!? Of course not manager was on site that night. The clerk took the microwave and threw it in the garbage can in front of my room.  Needless to say, I could not sleep after that. I was constantly checking my luggage to make sure I would not be carrying any extra travelers home. I was getting dressed the next morning while talking to my husband on my cell and what did I see scurry across the kitchen wall? Another ROACH! I will never stay in this hotel again!!!  the manager was totally embarassed and for good reason. She told me that they have a contract with a pest control company. I guess they didn't do there job before I checked in.  I want to give Kudos to the manager who compensated me with Marriotts Rewards Points on my account (worth a free night with points to spare). I have traveled for my job for four years and have never had any kind of bugs in my hotel room. Stay here at your own risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I am loyal to staying at Marriott branded hotels when I travel. I travel at least once a month throughout the year. This was the first time staying at this hotel in Buena Park. First of all, the hotel looked like an apartment complex. When I walked into my room, I was totally disappointed at the "1970's" decor. Old, old, old.  About 11:30pm, I go to plug my cell phone up in the kitchen and what scurried across the counter? You guessed it; a ROACH!  I was livid and immediately called the front desk. The clerk told me that someone would be there shortly. "Shortly" turned into 20 minutes. In walks the clerk with a can of RAID. She asks me where the roach is and I reply it is going in and out of the microwave. The clerk sprayed the counter with raid and then asked me if I was going to use the microwave. What!? Of course not manager was on site that night. The clerk took the microwave and threw it in the garbage can in front of my room.  Needless to say, I could not sleep after that. I was constantly checking my luggage to make sure I would not be carrying any extra travelers home. I was getting dressed the next morning while talking to my husband on my cell and what did I see scurry across the kitchen wall? Another ROACH! I will never...I am loyal to staying at Marriott branded hotels when I travel. I travel at least once a month throughout the year. This was the first time staying at this hotel in Buena Park. First of all, the hotel looked like an apartment complex. When I walked into my room, I was totally disappointed at the "1970's" decor. Old, old, old.  About 11:30pm, I go to plug my cell phone up in the kitchen and what scurried across the counter? You guessed it; a ROACH!  I was livid and immediately called the front desk. The clerk told me that someone would be there shortly. "Shortly" turned into 20 minutes. In walks the clerk with a can of RAID. She asks me where the roach is and I reply it is going in and out of the microwave. The clerk sprayed the counter with raid and then asked me if I was going to use the microwave. What!? Of course not manager was on site that night. The clerk took the microwave and threw it in the garbage can in front of my room.  Needless to say, I could not sleep after that. I was constantly checking my luggage to make sure I would not be carrying any extra travelers home. I was getting dressed the next morning while talking to my husband on my cell and what did I see scurry across the kitchen wall? Another ROACH! I will never stay in this hotel again!!!  the manager was totally embarassed and for good reason. She told me that they have a contract with a pest control company. I guess they didn't do there job before I checked in.  I want to give Kudos to the manager who compensated me with Marriotts Rewards Points on my account (worth a free night with points to spare). I have traveled for my job for four years and have never had any kind of bugs in my hotel room. Stay here at your own risk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r116966617-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>116966617</t>
+  </si>
+  <si>
+    <t>08/19/2011</t>
+  </si>
+  <si>
+    <t>A Typical Inn</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip through California. We had a difficult time finding it. It located on Firestone Blvd. No where was it indicated that there are two Firstone Blvds. One is on the west side of I5 and the other on the east side. Neither has a  direction designation. After wasting five - eight minutes searching on the west side, my wife saw it across I5. We finally found it. It doesn't have the typical Residence Inn architecture. It's a series of two story buildings in SoCal Spanish architecture spanning two dises of a small parking lot. We had a typicaal studio suite which is a good size. There is plenty of room for your baggage and yourselves. The workstation was a good size. The bathroom had sufficient counter space. Water pressure was very good and had quick hot water. The kitchenette had everything we needed. The buildings are somewhat removed from I5 thus almost eliminating that noise. Breakfast was the usual with cereals, waffles, fruit, juices, etc. The downside is for first floor suites. The space between buildings is an echo chamber and at 2:30 a.m. can rouse you from a sound sleep. We had that problem when a neighbor's friends left and continued talking in louder than normal voices. We didn't confront them.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip through California. We had a difficult time finding it. It located on Firestone Blvd. No where was it indicated that there are two Firstone Blvds. One is on the west side of I5 and the other on the east side. Neither has a  direction designation. After wasting five - eight minutes searching on the west side, my wife saw it across I5. We finally found it. It doesn't have the typical Residence Inn architecture. It's a series of two story buildings in SoCal Spanish architecture spanning two dises of a small parking lot. We had a typicaal studio suite which is a good size. There is plenty of room for your baggage and yourselves. The workstation was a good size. The bathroom had sufficient counter space. Water pressure was very good and had quick hot water. The kitchenette had everything we needed. The buildings are somewhat removed from I5 thus almost eliminating that noise. Breakfast was the usual with cereals, waffles, fruit, juices, etc. The downside is for first floor suites. The space between buildings is an echo chamber and at 2:30 a.m. can rouse you from a sound sleep. We had that problem when a neighbor's friends left and continued talking in louder than normal voices. We didn't confront them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r114117772-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>114117772</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>The best hotel to stay when visiting Biola University</t>
+  </si>
+  <si>
+    <t>This hotel is clean, close and friendly. There are special Biola rates but always ask which is a better deal. The front desk will check for you. Generally weekend rates are less expensive through the Marriott rate. The rooms are all suites, lots of space and has a full size kitchen. The breakfast is one of the best we have seen. Besides the usual hot stuff, there are yogurt parfaits, pancake amenities include blueberries, chocolate chips and walnuts! The coffee is high quality and you can make your own mocha by mixing in the hot chocolate mix.There is a small basketball court which is a plus for my student who was visiting Biola.Not only will I return, I've booked their 2 bedroom, 2 bath suite for move in weekend!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>This hotel is clean, close and friendly. There are special Biola rates but always ask which is a better deal. The front desk will check for you. Generally weekend rates are less expensive through the Marriott rate. The rooms are all suites, lots of space and has a full size kitchen. The breakfast is one of the best we have seen. Besides the usual hot stuff, there are yogurt parfaits, pancake amenities include blueberries, chocolate chips and walnuts! The coffee is high quality and you can make your own mocha by mixing in the hot chocolate mix.There is a small basketball court which is a plus for my student who was visiting Biola.Not only will I return, I've booked their 2 bedroom, 2 bath suite for move in weekend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r110034452-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>110034452</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>Great staff.  Convenient location.</t>
+  </si>
+  <si>
+    <t>This is an older property, but is nicely maintained.  Ashley takes great care of customers; she always remembers my name even though I'm only there every other month or so.  During the weeknights, there is complimentary food/snacks/beverages in the main lobby/guest house.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r93676063-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>93676063</t>
+  </si>
+  <si>
+    <t>01/18/2011</t>
+  </si>
+  <si>
+    <t>NOT MARRIOTT QUALITY</t>
+  </si>
+  <si>
+    <t>I actually changed hotels to stay here.  I was quite disappointed with the rooms!! They are definitely not Mariott quality.  We had a 1 bedroom suite.  They actually look like an old apartment complex that Marriott took over.  I have stayed in quite a few Marriott Residence Inns and boy was I surprised with this one.  The room was clean but everything was old!!  The couch sank in the middle and the bed sucked.  It was like Motel 6 with a kitchen.   All the numbers were faded on the stove.We were on the first floor could hear every movement from our upstairs neighbor.  We heard the noise from the 5 freeway all night long.  Definitely not worth $149.00 a night.The staff were very friendly and helpful but I would never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I actually changed hotels to stay here.  I was quite disappointed with the rooms!! They are definitely not Mariott quality.  We had a 1 bedroom suite.  They actually look like an old apartment complex that Marriott took over.  I have stayed in quite a few Marriott Residence Inns and boy was I surprised with this one.  The room was clean but everything was old!!  The couch sank in the middle and the bed sucked.  It was like Motel 6 with a kitchen.   All the numbers were faded on the stove.We were on the first floor could hear every movement from our upstairs neighbor.  We heard the noise from the 5 freeway all night long.  Definitely not worth $149.00 a night.The staff were very friendly and helpful but I would never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r76876484-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>76876484</t>
+  </si>
+  <si>
+    <t>08/25/2010</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>We booked this hotel because they had a great rate for families from Biola University.  We had two rooms, a two bedroom for the first night: the room was very clean and well appointed with a kitchen and sitting area.  The room was on the freeway side of the building, so sitting on the lanai was very noisy, request a room facing the inside of the hotel.  The majority of our trip was in a studio.  It was also very clean and well appointed, the inside room was much quieter also. The best part of our stay was the staff (Hello to the "happy guy" Timothy who greeted us every morning for breakfast)  The  breakfast is great! waffles, eggs, sausage, cerial, fresh fruit, yogert..all yummy and well stocked.  We will definately be returning. ;)  PS.There are 4 resturants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We booked this hotel because they had a great rate for families from Biola University.  We had two rooms, a two bedroom for the first night: the room was very clean and well appointed with a kitchen and sitting area.  The room was on the freeway side of the building, so sitting on the lanai was very noisy, request a room facing the inside of the hotel.  The majority of our trip was in a studio.  It was also very clean and well appointed, the inside room was much quieter also. The best part of our stay was the staff (Hello to the "happy guy" Timothy who greeted us every morning for breakfast)  The  breakfast is great! waffles, eggs, sausage, cerial, fresh fruit, yogert..all yummy and well stocked.  We will definately be returning. ;)  PS.There are 4 resturants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r75699536-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>75699536</t>
+  </si>
+  <si>
+    <t>08/17/2010</t>
+  </si>
+  <si>
+    <t>This Place Needs a Renovation</t>
+  </si>
+  <si>
+    <t>Marriott needs to renovate this place!  This place is falling apart!!Cleanliness - 3 stars since things were fairly clean.Location - 3 stars since place is less than 1 mile from my workplace and there is an In &amp; Out Burger next door.Rooms - 2 stars since place is old with old bed, old sofa, old TV, old lamps, old stove, old microwave.  The only good thing about the room is the free internet and safe.Service - 4 stars since staff was friendly.  Value - 2 stars since there are other hotels near by that offers better value.Sleep quality - 1 star since mattress has been used for so long that it just sinks down and the pillows go flat quickly.  In addition, if your room is on the ground floor, then you will definitely hear the person on the second floor and feel the loud vibration when that person walks around (thump! thump! thump!).  And the air conditioner unit right outside the window (next to the bed) is quite annoying as it goes on and off during the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marriott needs to renovate this place!  This place is falling apart!!Cleanliness - 3 stars since things were fairly clean.Location - 3 stars since place is less than 1 mile from my workplace and there is an In &amp; Out Burger next door.Rooms - 2 stars since place is old with old bed, old sofa, old TV, old lamps, old stove, old microwave.  The only good thing about the room is the free internet and safe.Service - 4 stars since staff was friendly.  Value - 2 stars since there are other hotels near by that offers better value.Sleep quality - 1 star since mattress has been used for so long that it just sinks down and the pillows go flat quickly.  In addition, if your room is on the ground floor, then you will definitely hear the person on the second floor and feel the loud vibration when that person walks around (thump! thump! thump!).  And the air conditioner unit right outside the window (next to the bed) is quite annoying as it goes on and off during the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r68953673-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>68953673</t>
+  </si>
+  <si>
+    <t>06/28/2010</t>
+  </si>
+  <si>
+    <t>Won't stay here again.</t>
+  </si>
+  <si>
+    <t>This room was not Marriott quality.  old tv, old bedding, not like any other Residence Inn I have stayed at.  There were so many kids, teenagers yelling  and milling around, all from a soccer team, yes, but kids everywhere.  Breakfast was not doable due to all the noise of the kids and their taking over the whole breakfast bar.  Will not stay at this hotel again and have learned to check the category types.  This was a category 3, and though the security guards responded quickly, I shouldn't have even had to make that call.  Very disappointed with this particular hotel, especially when there are tons of other hotels nearby. noise from nearby theme park?  sounded like explosions going off.  ask to not be put next to freeway or Firestone Blvd.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>This room was not Marriott quality.  old tv, old bedding, not like any other Residence Inn I have stayed at.  There were so many kids, teenagers yelling  and milling around, all from a soccer team, yes, but kids everywhere.  Breakfast was not doable due to all the noise of the kids and their taking over the whole breakfast bar.  Will not stay at this hotel again and have learned to check the category types.  This was a category 3, and though the security guards responded quickly, I shouldn't have even had to make that call.  Very disappointed with this particular hotel, especially when there are tons of other hotels nearby. noise from nearby theme park?  sounded like explosions going off.  ask to not be put next to freeway or Firestone Blvd.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r48900243-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>48900243</t>
+  </si>
+  <si>
+    <t>11/10/2009</t>
+  </si>
+  <si>
+    <t>There are better hotels in the area for the same price</t>
+  </si>
+  <si>
+    <t>This property seems like (and may well be) an old motel that Marriott purchased and converted to a Residence Inn. The location is in an industrial park right next to the highway, and it definitely didn't seem well-lit at night. The breakfast was good and I liked the fact that they had some healthy options. The staff was very friendly, but I was surprised my "upgraded" room was a ground floor room right next to the laundry room and housekeeping suite. The TV in my bedroom did not work correctly, and the room itself was very basic / no frills. From the decor to the appliances, everything looked a bit dated to me. My biggest beef with the property is what you pay here. Even on a discounted corporate rate, I paid more than colleagues attending the same business meeting who stayed a very nice full service hotels like the Sheraton for less. Those hotels are certainly in nicer areas with more dining, shopping, and entertainment options around. At the end of the day, this hotel was fine, but I saw first hand two better properties in the area that I would definitely lean towards next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>This property seems like (and may well be) an old motel that Marriott purchased and converted to a Residence Inn. The location is in an industrial park right next to the highway, and it definitely didn't seem well-lit at night. The breakfast was good and I liked the fact that they had some healthy options. The staff was very friendly, but I was surprised my "upgraded" room was a ground floor room right next to the laundry room and housekeeping suite. The TV in my bedroom did not work correctly, and the room itself was very basic / no frills. From the decor to the appliances, everything looked a bit dated to me. My biggest beef with the property is what you pay here. Even on a discounted corporate rate, I paid more than colleagues attending the same business meeting who stayed a very nice full service hotels like the Sheraton for less. Those hotels are certainly in nicer areas with more dining, shopping, and entertainment options around. At the end of the day, this hotel was fine, but I saw first hand two better properties in the area that I would definitely lean towards next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r39363329-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>39363329</t>
+  </si>
+  <si>
+    <t>08/31/2009</t>
+  </si>
+  <si>
+    <t>good but bad at the same time !</t>
+  </si>
+  <si>
+    <t>The rooms are very well maintained. Breakfast is more than okay, full menu : waffles, oatmeal, yogurt, sausages, potatoes, fruits, you name it. They even give free supper with wine and beer too every weekday! The bad thing is that all their housekeeping staff do not speak English and our guess is that they are not very well trained. These are the couple of things that happened to us that made us rethink again of the huge brand name MARRIOTT.
+First, we found a used pillow behind our couch, it looked like it had been there for sometime. So we figured the staff is not thorough in cleaning the rooms. Second, the room we were in made very loud noises, like the dishwasher made noises every hour even when it is not active. The piping also made so much noise everytime we finish shower. Third, one day we came back from disneyland at around 6 pm and found that all our carpets were wet, there was a note on the table that said that the carpet had just been washed. Then, we found that all of our suitcases AND SHOES, were left on our BEDS !!! We had a 2 bedroom suite so we did have a number of luggages and shoes. And as if that was not enough to send us to our necks, we also found our hand-carry bags ON TOP OF our LAPTOPS, which are then put...The rooms are very well maintained. Breakfast is more than okay, full menu : waffles, oatmeal, yogurt, sausages, potatoes, fruits, you name it. They even give free supper with wine and beer too every weekday! The bad thing is that all their housekeeping staff do not speak English and our guess is that they are not very well trained. These are the couple of things that happened to us that made us rethink again of the huge brand name MARRIOTT.First, we found a used pillow behind our couch, it looked like it had been there for sometime. So we figured the staff is not thorough in cleaning the rooms. Second, the room we were in made very loud noises, like the dishwasher made noises every hour even when it is not active. The piping also made so much noise everytime we finish shower. Third, one day we came back from disneyland at around 6 pm and found that all our carpets were wet, there was a note on the table that said that the carpet had just been washed. Then, we found that all of our suitcases AND SHOES, were left on our BEDS !!! We had a 2 bedroom suite so we did have a number of luggages and shoes. And as if that was not enough to send us to our necks, we also found our hand-carry bags ON TOP OF our LAPTOPS, which are then put by SHOES ON TOP OF those bags !! I mean, first of all, why would you make all the carpets wet while we were still there for at least another 5 days. And why didn't they confirm with us first ? And how inappropriate it is for them to place shoes and suitcases on our beds ?!! We are very clean people, we don't even walk inside the room with our shoes on! So anyway, we did complained to the front office staff in the morning (because the carpet was STILL WET at that point), and the way that these staff responded was very unprofessional too. They looked terrified and just said sorry. And later that day they send some cookies and an apology note to our rooms. We think that that was not enough, knowing that MARRIOTT was such a big name.. We have stayed in other hotels such as the MARCOPOLO, HYATT, or WESTIN, etc, and made smaller, minor complaints, and received upgrades or free stays as gestures of their apologies. But then again, these were in Asia, and I do believe and have noticed that the hospitality industry in the US is not as service oriented as it is in Asia.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>The rooms are very well maintained. Breakfast is more than okay, full menu : waffles, oatmeal, yogurt, sausages, potatoes, fruits, you name it. They even give free supper with wine and beer too every weekday! The bad thing is that all their housekeeping staff do not speak English and our guess is that they are not very well trained. These are the couple of things that happened to us that made us rethink again of the huge brand name MARRIOTT.
+First, we found a used pillow behind our couch, it looked like it had been there for sometime. So we figured the staff is not thorough in cleaning the rooms. Second, the room we were in made very loud noises, like the dishwasher made noises every hour even when it is not active. The piping also made so much noise everytime we finish shower. Third, one day we came back from disneyland at around 6 pm and found that all our carpets were wet, there was a note on the table that said that the carpet had just been washed. Then, we found that all of our suitcases AND SHOES, were left on our BEDS !!! We had a 2 bedroom suite so we did have a number of luggages and shoes. And as if that was not enough to send us to our necks, we also found our hand-carry bags ON TOP OF our LAPTOPS, which are then put...The rooms are very well maintained. Breakfast is more than okay, full menu : waffles, oatmeal, yogurt, sausages, potatoes, fruits, you name it. They even give free supper with wine and beer too every weekday! The bad thing is that all their housekeeping staff do not speak English and our guess is that they are not very well trained. These are the couple of things that happened to us that made us rethink again of the huge brand name MARRIOTT.First, we found a used pillow behind our couch, it looked like it had been there for sometime. So we figured the staff is not thorough in cleaning the rooms. Second, the room we were in made very loud noises, like the dishwasher made noises every hour even when it is not active. The piping also made so much noise everytime we finish shower. Third, one day we came back from disneyland at around 6 pm and found that all our carpets were wet, there was a note on the table that said that the carpet had just been washed. Then, we found that all of our suitcases AND SHOES, were left on our BEDS !!! We had a 2 bedroom suite so we did have a number of luggages and shoes. And as if that was not enough to send us to our necks, we also found our hand-carry bags ON TOP OF our LAPTOPS, which are then put by SHOES ON TOP OF those bags !! I mean, first of all, why would you make all the carpets wet while we were still there for at least another 5 days. And why didn't they confirm with us first ? And how inappropriate it is for them to place shoes and suitcases on our beds ?!! We are very clean people, we don't even walk inside the room with our shoes on! So anyway, we did complained to the front office staff in the morning (because the carpet was STILL WET at that point), and the way that these staff responded was very unprofessional too. They looked terrified and just said sorry. And later that day they send some cookies and an apology note to our rooms. We think that that was not enough, knowing that MARRIOTT was such a big name.. We have stayed in other hotels such as the MARCOPOLO, HYATT, or WESTIN, etc, and made smaller, minor complaints, and received upgrades or free stays as gestures of their apologies. But then again, these were in Asia, and I do believe and have noticed that the hospitality industry in the US is not as service oriented as it is in Asia.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r21522052-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>21522052</t>
+  </si>
+  <si>
+    <t>11/03/2008</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn for three nights this October for business.  I was very pleased with my stay at this hotel, and I want to recommend it to anyone looking for a nice hotel in La Mirada.  The hotel looks more like an apartment complex than a hotel.The rooms were quite spacious, and the full size kitchen was wonderful when I wanted to make my own dinner.  The rooms have a fridge, dishwasher, sink, microwave, and two stovetops.  There is also an "In-N-Out" burger stand next door to the hotel.The bed was decent, not the most comfortable bed I've slept in... but it wasn't bad either.  The continental breakfast was adequate.  A rather basic breakfast meal, but filling.  I recommend the breakfast potatoes slices.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn for three nights this October for business.  I was very pleased with my stay at this hotel, and I want to recommend it to anyone looking for a nice hotel in La Mirada.  The hotel looks more like an apartment complex than a hotel.The rooms were quite spacious, and the full size kitchen was wonderful when I wanted to make my own dinner.  The rooms have a fridge, dishwasher, sink, microwave, and two stovetops.  There is also an "In-N-Out" burger stand next door to the hotel.The bed was decent, not the most comfortable bed I've slept in... but it wasn't bad either.  The continental breakfast was adequate.  A rather basic breakfast meal, but filling.  I recommend the breakfast potatoes slices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r14818723-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>14818723</t>
+  </si>
+  <si>
+    <t>04/05/2008</t>
+  </si>
+  <si>
+    <t>Freeway noise</t>
+  </si>
+  <si>
+    <t>This hotel is next to I5 freeway and you can really hear the noise. Our room was in the front building and you can hear noise even in wee hours! . So, ask for a room close to the end of the property. I asked them to move us but the lady in charge  on weekend was not willing to move us. She keeps  telling me they don't have any available room .  Her name is Deborah.The breakfast was okey. The coffee was the worst coffee I ever had. It was  terrible.  The guy in charge of breakfast is a wonderful guy and I can forgive them for the  lousy coffee because Tim is such a hardworking guy. I never saw him stop working while we were there. His name is Tim Lopez, great personality and Residence Inn should be proud of him.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>This hotel is next to I5 freeway and you can really hear the noise. Our room was in the front building and you can hear noise even in wee hours! . So, ask for a room close to the end of the property. I asked them to move us but the lady in charge  on weekend was not willing to move us. She keeps  telling me they don't have any available room .  Her name is Deborah.The breakfast was okey. The coffee was the worst coffee I ever had. It was  terrible.  The guy in charge of breakfast is a wonderful guy and I can forgive them for the  lousy coffee because Tim is such a hardworking guy. I never saw him stop working while we were there. His name is Tim Lopez, great personality and Residence Inn should be proud of him.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r8255758-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>8255758</t>
+  </si>
+  <si>
+    <t>07/29/2007</t>
+  </si>
+  <si>
+    <t>Great Hospitality!</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn in la Mirada for our mini vacation to Knotts Berry Farm.  We booked at the last minute and this was the only hotel available. It was about a 10 minute drive to Knotts, but there were a lot of restaurants within walking distance.  What separated this hotel from similar ones was the extraordinary customer service.  We arrived too late for the evening reception and the server felt so bad that he delivered a dozen fresh, warm chocolate chip cookies and 4 milks to our room half an hour later!  Very impressed.  The room was plenty big enough for our family of 4 and the full kitchen is always a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn in la Mirada for our mini vacation to Knotts Berry Farm.  We booked at the last minute and this was the only hotel available. It was about a 10 minute drive to Knotts, but there were a lot of restaurants within walking distance.  What separated this hotel from similar ones was the extraordinary customer service.  We arrived too late for the evening reception and the server felt so bad that he delivered a dozen fresh, warm chocolate chip cookies and 4 milks to our room half an hour later!  Very impressed.  The room was plenty big enough for our family of 4 and the full kitchen is always a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r5013901-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
+  </si>
+  <si>
+    <t>5013901</t>
+  </si>
+  <si>
+    <t>04/26/2006</t>
+  </si>
+  <si>
+    <t>Nice for families</t>
+  </si>
+  <si>
+    <t>We booked a 2 bedroom suite here for a family trip to Disneyland.  The room was very spacious, with 2 bedrooms each having a queen bed and a pull out sofa in the living room.  The kitchen was also spacious although we didn't use it much.  This hotel could be really noisy if you were not at the back of the property.  Make sure you are not at the front of the property as it practically sits on I-5, but you really can't hear it at the back of the property.
+Swimming pool was very clean, as well as hot tub.  My kids enjoyed the fitness room as well and I used the guest laundry once, and it was nice and clean.  
+Breakfast is pretty good although a bit "institutional".  There was sausage, scrambled eggs, lots of fruit, cereal, bagels/cream cheese, muffins/pastries and make your own waffles with various toppings.  Also lots of yogurt and granola.  It was nice.
+Our housekeeping person made up the room nicely each day and always put my daughter's Sleeping Beauty pillow right in the middle of the bed, which my 9 year old thought was really a nice touch.  
+Staff was very nice, and they have directions to just about anywhere.  
+Overall a nice stay-would stay here again.
+Only drawback-the toilet ran all week.  We called maintenace to fix it and we think they tried but did not succeed.  So we just shut it...We booked a 2 bedroom suite here for a family trip to Disneyland.  The room was very spacious, with 2 bedrooms each having a queen bed and a pull out sofa in the living room.  The kitchen was also spacious although we didn't use it much.  This hotel could be really noisy if you were not at the back of the property.  Make sure you are not at the front of the property as it practically sits on I-5, but you really can't hear it at the back of the property.Swimming pool was very clean, as well as hot tub.  My kids enjoyed the fitness room as well and I used the guest laundry once, and it was nice and clean.  Breakfast is pretty good although a bit "institutional".  There was sausage, scrambled eggs, lots of fruit, cereal, bagels/cream cheese, muffins/pastries and make your own waffles with various toppings.  Also lots of yogurt and granola.  It was nice.Our housekeeping person made up the room nicely each day and always put my daughter's Sleeping Beauty pillow right in the middle of the bed, which my 9 year old thought was really a nice touch.  Staff was very nice, and they have directions to just about anywhere.  Overall a nice stay-would stay here again.Only drawback-the toilet ran all week.  We called maintenace to fix it and we think they tried but did not succeed.  So we just shut it off each night before bed and turned it back on each morning.  No big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a 2 bedroom suite here for a family trip to Disneyland.  The room was very spacious, with 2 bedrooms each having a queen bed and a pull out sofa in the living room.  The kitchen was also spacious although we didn't use it much.  This hotel could be really noisy if you were not at the back of the property.  Make sure you are not at the front of the property as it practically sits on I-5, but you really can't hear it at the back of the property.
+Swimming pool was very clean, as well as hot tub.  My kids enjoyed the fitness room as well and I used the guest laundry once, and it was nice and clean.  
+Breakfast is pretty good although a bit "institutional".  There was sausage, scrambled eggs, lots of fruit, cereal, bagels/cream cheese, muffins/pastries and make your own waffles with various toppings.  Also lots of yogurt and granola.  It was nice.
+Our housekeeping person made up the room nicely each day and always put my daughter's Sleeping Beauty pillow right in the middle of the bed, which my 9 year old thought was really a nice touch.  
+Staff was very nice, and they have directions to just about anywhere.  
+Overall a nice stay-would stay here again.
+Only drawback-the toilet ran all week.  We called maintenace to fix it and we think they tried but did not succeed.  So we just shut it...We booked a 2 bedroom suite here for a family trip to Disneyland.  The room was very spacious, with 2 bedrooms each having a queen bed and a pull out sofa in the living room.  The kitchen was also spacious although we didn't use it much.  This hotel could be really noisy if you were not at the back of the property.  Make sure you are not at the front of the property as it practically sits on I-5, but you really can't hear it at the back of the property.Swimming pool was very clean, as well as hot tub.  My kids enjoyed the fitness room as well and I used the guest laundry once, and it was nice and clean.  Breakfast is pretty good although a bit "institutional".  There was sausage, scrambled eggs, lots of fruit, cereal, bagels/cream cheese, muffins/pastries and make your own waffles with various toppings.  Also lots of yogurt and granola.  It was nice.Our housekeeping person made up the room nicely each day and always put my daughter's Sleeping Beauty pillow right in the middle of the bed, which my 9 year old thought was really a nice touch.  Staff was very nice, and they have directions to just about anywhere.  Overall a nice stay-would stay here again.Only drawback-the toilet ran all week.  We called maintenace to fix it and we think they tried but did not succeed.  So we just shut it off each night before bed and turned it back on each morning.  No big deal.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2143,4912 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>195</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>278</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>285</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" t="s">
+        <v>291</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s">
+        <v>297</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43" t="s">
+        <v>301</v>
+      </c>
+      <c r="K43" t="s">
+        <v>302</v>
+      </c>
+      <c r="L43" t="s">
+        <v>303</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>292</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>292</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>312</v>
+      </c>
+      <c r="J45" t="s">
+        <v>313</v>
+      </c>
+      <c r="K45" t="s">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s">
+        <v>315</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>317</v>
+      </c>
+      <c r="J46" t="s">
+        <v>318</v>
+      </c>
+      <c r="K46" t="s">
+        <v>319</v>
+      </c>
+      <c r="L46" t="s">
+        <v>320</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>321</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>323</v>
+      </c>
+      <c r="J47" t="s">
+        <v>324</v>
+      </c>
+      <c r="K47" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" t="s">
+        <v>326</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>327</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>329</v>
+      </c>
+      <c r="J48" t="s">
+        <v>330</v>
+      </c>
+      <c r="K48" t="s">
+        <v>331</v>
+      </c>
+      <c r="L48" t="s">
+        <v>332</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s">
+        <v>336</v>
+      </c>
+      <c r="L49" t="s">
+        <v>337</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>338</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" t="s">
+        <v>342</v>
+      </c>
+      <c r="L50" t="s">
+        <v>343</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>344</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>345</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>346</v>
+      </c>
+      <c r="J51" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" t="s">
+        <v>348</v>
+      </c>
+      <c r="L51" t="s">
+        <v>349</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>351</v>
+      </c>
+      <c r="J52" t="s">
+        <v>352</v>
+      </c>
+      <c r="K52" t="s">
+        <v>353</v>
+      </c>
+      <c r="L52" t="s">
+        <v>354</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>357</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>358</v>
+      </c>
+      <c r="J53" t="s">
+        <v>359</v>
+      </c>
+      <c r="K53" t="s">
+        <v>360</v>
+      </c>
+      <c r="L53" t="s">
+        <v>361</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>362</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>364</v>
+      </c>
+      <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s">
+        <v>367</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>368</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>370</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+      <c r="J55" t="s">
+        <v>372</v>
+      </c>
+      <c r="K55" t="s">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s">
+        <v>374</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>375</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>377</v>
+      </c>
+      <c r="J56" t="s">
+        <v>378</v>
+      </c>
+      <c r="K56" t="s">
+        <v>379</v>
+      </c>
+      <c r="L56" t="s">
+        <v>380</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>368</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>382</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>383</v>
+      </c>
+      <c r="J57" t="s">
+        <v>384</v>
+      </c>
+      <c r="K57" t="s">
+        <v>385</v>
+      </c>
+      <c r="L57" t="s">
+        <v>386</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>387</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>389</v>
+      </c>
+      <c r="J58" t="s">
+        <v>390</v>
+      </c>
+      <c r="K58" t="s">
+        <v>391</v>
+      </c>
+      <c r="L58" t="s">
+        <v>392</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>387</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>394</v>
+      </c>
+      <c r="J59" t="s">
+        <v>395</v>
+      </c>
+      <c r="K59" t="s">
+        <v>396</v>
+      </c>
+      <c r="L59" t="s">
+        <v>397</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>398</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>399</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>400</v>
+      </c>
+      <c r="J60" t="s">
+        <v>401</v>
+      </c>
+      <c r="K60" t="s">
+        <v>402</v>
+      </c>
+      <c r="L60" t="s">
+        <v>403</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>404</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>406</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>407</v>
+      </c>
+      <c r="J61" t="s">
+        <v>408</v>
+      </c>
+      <c r="K61" t="s">
+        <v>409</v>
+      </c>
+      <c r="L61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>411</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>412</v>
+      </c>
+      <c r="J62" t="s">
+        <v>413</v>
+      </c>
+      <c r="K62" t="s">
+        <v>414</v>
+      </c>
+      <c r="L62" t="s">
+        <v>415</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>416</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>417</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>418</v>
+      </c>
+      <c r="J63" t="s">
+        <v>419</v>
+      </c>
+      <c r="K63" t="s">
+        <v>420</v>
+      </c>
+      <c r="L63" t="s">
+        <v>421</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>422</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>423</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>424</v>
+      </c>
+      <c r="J64" t="s">
+        <v>425</v>
+      </c>
+      <c r="K64" t="s">
+        <v>426</v>
+      </c>
+      <c r="L64" t="s">
+        <v>427</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>428</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>429</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>430</v>
+      </c>
+      <c r="J65" t="s">
+        <v>431</v>
+      </c>
+      <c r="K65" t="s">
+        <v>432</v>
+      </c>
+      <c r="L65" t="s">
+        <v>433</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>434</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>435</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>436</v>
+      </c>
+      <c r="J66" t="s">
+        <v>437</v>
+      </c>
+      <c r="K66" t="s">
+        <v>438</v>
+      </c>
+      <c r="L66" t="s">
+        <v>439</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>440</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>442</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" t="s">
+        <v>444</v>
+      </c>
+      <c r="K67" t="s">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s">
+        <v>446</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>447</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>449</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>450</v>
+      </c>
+      <c r="J68" t="s">
+        <v>451</v>
+      </c>
+      <c r="K68" t="s">
+        <v>452</v>
+      </c>
+      <c r="L68" t="s">
+        <v>453</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>454</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J69" t="s">
+        <v>458</v>
+      </c>
+      <c r="K69" t="s">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s">
+        <v>460</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>461</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" t="s">
+        <v>464</v>
+      </c>
+      <c r="K70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s">
+        <v>466</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>468</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>469</v>
+      </c>
+      <c r="J71" t="s">
+        <v>470</v>
+      </c>
+      <c r="K71" t="s">
+        <v>471</v>
+      </c>
+      <c r="L71" t="s">
+        <v>472</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>473</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>475</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>476</v>
+      </c>
+      <c r="J72" t="s">
+        <v>477</v>
+      </c>
+      <c r="K72" t="s">
+        <v>478</v>
+      </c>
+      <c r="L72" t="s">
+        <v>479</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>473</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>481</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>482</v>
+      </c>
+      <c r="J73" t="s">
+        <v>483</v>
+      </c>
+      <c r="K73" t="s">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s">
+        <v>485</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>486</v>
+      </c>
+      <c r="O73" t="s">
+        <v>87</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>488</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>489</v>
+      </c>
+      <c r="J74" t="s">
+        <v>490</v>
+      </c>
+      <c r="K74" t="s">
+        <v>491</v>
+      </c>
+      <c r="L74" t="s">
+        <v>492</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>493</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>495</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>496</v>
+      </c>
+      <c r="J75" t="s">
+        <v>497</v>
+      </c>
+      <c r="K75" t="s">
+        <v>498</v>
+      </c>
+      <c r="L75" t="s">
+        <v>499</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>500</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>502</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>503</v>
+      </c>
+      <c r="J76" t="s">
+        <v>504</v>
+      </c>
+      <c r="K76" t="s">
+        <v>505</v>
+      </c>
+      <c r="L76" t="s">
+        <v>506</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>507</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>509</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" t="s">
+        <v>511</v>
+      </c>
+      <c r="K77" t="s">
+        <v>512</v>
+      </c>
+      <c r="L77" t="s">
+        <v>513</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>514</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>517</v>
+      </c>
+      <c r="J78" t="s">
+        <v>518</v>
+      </c>
+      <c r="K78" t="s">
+        <v>519</v>
+      </c>
+      <c r="L78" t="s">
+        <v>520</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>521</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>28783</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>523</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>524</v>
+      </c>
+      <c r="J79" t="s">
+        <v>525</v>
+      </c>
+      <c r="K79" t="s">
+        <v>526</v>
+      </c>
+      <c r="L79" t="s">
+        <v>527</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_646.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_646.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Justin C</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r557611599-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Karen O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r552839606-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve">We had a two bedroom suite with a sofa bed.  The queen beds were comfortable but the sofa bed could not sleep 2 adults  as we were told.  The wi-if and TV worked fine.  The bathroom had a heated ceiling vent/fan that felt so nice after a shower.  We used one log in the fireplace (for free), after that we would have been charged. The pool was not cold and the hot tub was not too hot.  The breakfast was adequate: scrambled eggs, waffles, sausage, fruit, cereal, oatmeal, yogurt, juice, coffee, pastries.  This was like ‘home away from home’.  </t>
   </si>
   <si>
+    <t>H1861DBrandym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r536683404-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Marumagic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r533328702-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>The hotel is okay overall, the parking is very difficult the spaces are small and they don’t have enough. The lobby is nice and staff is friendly. The breakfast has several options but the configuration of the Dinning area makes it very difficult to navigate and get food and it gets super crowded so get there as soon as they open. The rooms as spacious but need a small remodel mostly the bathrooms. They are still old style and they don’t clean them as often as they should. The toilet and the shower had many dirty places and it was small. The curtains are old and don’t cover the whole shower even though we tried different things the water still fell outside and made a mess. I almost slipped that’s why we had to place towels on the floor for the water. Overall it’s okay for the price and it’s close to the Anaheim/Disney area if you don’t want to pay too much for a hotel. Also it’s about 25 minutes from downtown LA so it’s a good alternative. Although make sure to get directions there are construction on both directions of the hotel and there is only one way to get there from the freeway. I would only stay there again if I have to but not a future option for me. More</t>
   </si>
   <si>
+    <t>SnowyShasta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r528179863-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Holnek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r506350932-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>deeprada</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r503660668-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>We stayed at the Residence in for 3 nights for a double date trip to Disney and Universal. The hotel is located right off the highway which is perfect for getting around. A big plus was the free parking. We stayed in a two bedroom suite and the living space/kitchen and bedrooms were just what we needed, the bathrooms could have been refreshed/renovated a bit and were quite dark. We were at the back of the hotel so didn't hear much noise from the highway which was nice. The complimentary breakfast was great too. A large variety every morning, however our last morning there was a Saturday and it was very busy with guests. We didn't make us of the gym or pool and the hot tub was just luke warm. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Yinnyang97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r502875832-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>My family and I are taking a week long vacation in California, first stop was the Residence Inn in La Mirada.  La Mirada is about an hour out of Los Angeles, which is great for visiting LA then heading back to the quiet out of the city.The hotel was very quiet and staff was friendly and helpful.  Usually I rate the exercise rooms, but a knee injury has kept me out of the weight room. :(.  The pool was good and the water wasn't ice cold.  (My wife was happy about that).  The pool wasn't big, but there was enough room with us and 3 other families to move around without bumping into each other.The hotel is close to L.A.  and Disneyland, kinda the perfect location.The hotel does offer breakfast for its guests.  It was very crowded and a little chaotic.  The food was ok, but not great.  The sausages were dry and they were low on a lot of other foods.  Probably the only blemish on the hotel, but there were a lot of guests and it could've been a demand issue.Overall, a great night at a good hotel.More</t>
   </si>
   <si>
+    <t>KEE_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r501232522-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t xml:space="preserve">Loud as its got interstate 5 on one side and a train on the other.  People up talking at 6am. Loudly! Like bugs? Lots of mosquitos and gnats. Dirty with dead bugs and a cloudy pool. Workout room dirty. </t>
   </si>
   <si>
+    <t>Braeingle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r495162735-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -367,6 +400,9 @@
   </si>
   <si>
     <t>We've tried a variety of hotels when visiting family in North Orange County. Most are overpriced and overrun with kids in Mickey Mouse ears. The Residence Inn La Mirada is a welcome respite. Quiet with helpful staff and a great breakfast. Couldn't ask for more. This is now our 'go to' place to stay in the area.</t>
+  </si>
+  <si>
+    <t>PA430</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r494884081-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
@@ -402,6 +438,9 @@
 The...Residence Inn La Mirada is not a Marriott owned property. The franchisees manage it quite well though. However there is so much construction around Buena Park  area. getting to the hotel is a daily problem as many approach roads are closed. Took me a two or three days to get to know best navigation routes. They have free breakfast included but it begins only at 6:30am. I had to travel on work daily and to beat the well known LA traffic I left the hotel by 5:30 every morning. I went to nearby Holiday Inn for eating breakfast which has a 24 hour restaurant. I noticed Holiday Inn was much better and room prices were cheaper than Residence Inn La Mirada too. As a Marriott Rewards member I decided to stay but I ate breakfast at Holiday Inn.There are practically no restaurants nearby other than "In and Out Burger" or the one at Holiday Inn. At Inn &amp; Out Burger they serve only red meat burgers which I do not eat. Going to Holday Inn for the second time every day was out. So evenings I grabbed frozen food from Residence Inn Market - frozen food heated in the microwave in my room. Not much of dinner to talk about. Residence Inn offers free food and wine on three evenings each week. Wine was Costco wine but good in taste. They also served beer on these three evenings. The property is spread out over an area with several buildings, each building with 8 or 10 rooms. You end up walking a good distance if you get a room far interior on the property. Swimming pool, laundry and gym are located near the hotel office building. Pool was always occupied with kids most evenings but a nice place to cool off in summer months. Apparently hotel guests have been feeding birds while seated on the pool side tables. I found a bird that ate from my hands. That was a wonderful experience. See a frame capture from a video I took. (Sadly this site does not allow uploading of videos). As I said living for two weeks at this hotel was like living on an island. They do not have a proper restaurant and so not the most suitable for business dinners. Staff is nice and friendly.More</t>
   </si>
   <si>
+    <t>Samuel R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r463619743-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Craig N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r459458536-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Kristine T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r458588009-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -451,6 +496,9 @@
   </si>
   <si>
     <t xml:space="preserve">Very good place to stay. Feels like "home" quiet and they have nice staffs here. Me and my husband loves the ambience and complementaries. Overall excellent hotel, I would definitely recommend this place. </t>
+  </si>
+  <si>
+    <t>Nancy L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r441581271-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
@@ -480,6 +528,9 @@
 I should note that the dog loves this...I don't know about your family, but when my family gets together for an event or a holiday, scheduling everyone, figuring out the rendezvous point and making it "stressless" are always a challenge. The beauty of Residence Inn La Mirada is it takes all those challenges away. If you bring a dog – the dog needs to be walked. And lo and behold, you can run into family members on your schedule and theirs! Also, with the bountiful and delicious breakfast options – you don't even have to set a time – you will see your family in the dining room - again at your convenience and theirs! We love the Residence Inn La Mirada. It  has become our home away from home in the Los Angeles / Orange County area. We usually try to get one of the bedroom units, and that makes it so easy to accommodate spur of the moment visits from family. If someone isn't ready to go – or come out and say hello– they can stay in their bedroom. We just stayed at the Residence Inn La Mirada for the fifth or sixth time – and it always outperforms our expectations. The staff is terrific. If you need a last-minute toothbrush, dishwashing soap, extra towels, or a new bedspread because someone spilled her drink on it (not naming names), the staff is always happy to accommodate.I should note that the dog loves this property too! It's his personal Disneyland. While we cannot detect any dog smells, his 'search' nose goes into hyper gear when we go on walks here. He doesn't want to leave! Not only will we be back, but we will continue telling whoever will listen what a great place this is.More</t>
   </si>
   <si>
+    <t>Susan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r439308209-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>This is a great place to stay if you have family traveling.  We had a group of 9 and stayed in two two bedroom units, complete with fireplace, kitchen and living room.  Rooms were well appointed and comfortable with two bathrooms.  Very Good free breakfast</t>
   </si>
   <si>
+    <t>Debashree c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r417736105-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>theumphressclan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r392528453-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -531,6 +588,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>apennywise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r386478374-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -549,6 +609,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>lemonfbaby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r383174795-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -567,6 +630,9 @@
     <t>Very basic and average. Nothing to wow me, asked for coffee to the room and they said they were out... decaf only. Jacuzzi was very cloudy and dingy looking. The bed was comfortable and the water pressure in the shower was great. Shower liner was too short so every time I showered it made a big water mess. TV cut out on me once and wouldn't come back... tried to use Netflix but it always told me to contact front desk before I could sign in but I didn't want to deal with it. On a day I stayed in my room all day, housekeeping was very noisy yelling about what rooms needed to get done. Just average.More</t>
   </si>
   <si>
+    <t>Julie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r358592897-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -585,6 +651,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Atworth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r355705994-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -600,6 +669,9 @@
     <t>Since rooms within walking distance of the Anaheim Convention Center were fully booked, I stayed at this Residence Inn which was about 10 miles (20 minutes in normal traffic) away.  The room was fine but the walls were thin, with mechanical and plumbing noise quite noticeable.  In addition to the taco food truck parked at the entrance the night I arrived, there is an In N Out Burger joint and a steakhouse nearby.  The taco truck must have been popular because lawn chairs were set up under the porte cochere.</t>
   </si>
   <si>
+    <t>Chloe C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r349832613-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -618,6 +690,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Deborah F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r322222104-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -636,6 +711,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>MASmith2752</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r310701874-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -654,6 +732,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Chuck S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r304545465-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -669,6 +750,9 @@
     <t>We really liked this place. Great breakfast. Plenty of things to do including basketball, pool, spa, fire pit and a weight lifting and workout room with tvs. The rooms we had were flawless. Apparently they all include a mini-kitchen.  Plenty of staff in the lobby which is nice.  No restaraunt on grounds but they are next door to in and out burger and They are within walking distance to the elephant bar restaraunt.</t>
   </si>
   <si>
+    <t>treerod1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r278400966-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -690,6 +774,9 @@
     <t>I've stayed at a number of different Residence Inn's and this one is probably one of the oldest I've ever stayed at. This facility is more like an apartment complex than a hotel, with only stairs for the second story rooms. The room was clean and fairly spacious. The one down side, however, was the queen bed - it was very, very firm and seemed to be fairly short, my feet kept hanging off the end and I'm not that tall.Considering how close we were to the freeway, the room was fairly quiet, except for the occasional train whistle (at 4 AM) and the coming and going of neighboring guests.The service was mixed, the week day staff seemed more helpful while the weekend staff not as much. The breakfast was fairly standard and not bad. More</t>
   </si>
   <si>
+    <t>Mgaab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r274908116-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -708,6 +795,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>richierichlv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r274038711-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -723,6 +813,9 @@
     <t>Knotts Berry Farm and Disneyland only a few minutes away.So nice having a full kitchen in you suite. AND they do your dishes.The free breakfast is nice. Make and build your own waffle is great. Family and friends of all sizes will love the property. Clean heated pool,exercise room, jacuzzi,  fire pit , BBQ, patio, furniture, and benches  for everyone to use. Harbor Freight and IN-N-OUT burger practically in the parking lot.</t>
   </si>
   <si>
+    <t>aghyba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r261499553-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -738,6 +831,9 @@
     <t xml:space="preserve">Stayed at Residence Inn in Buena Park, CA because our client has a good rate with them. I had not stayed in a RI in a long time and I remembered why. Great spacious clean room but the setting of having to drive to my room is more like a motel or apartment setting, I did not like. Great breakfast but again having to drive to the main building is not what I expect from a hotel. The workout center near the pool was small but did have decent free weights and one elliptical machine.  </t>
   </si>
   <si>
+    <t>JAIME C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r259685771-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -753,6 +849,9 @@
     <t>Overall clean room, signs of leaks and some grout on shower tile dark. :( But the most important part, 4 A/C units right next to our window where the bed is, buzzing loud noise alllll night!  Lobby area clean. Fridge also made noise when on.</t>
   </si>
   <si>
+    <t>JustHangingAround</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r255155978-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -771,6 +870,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Janet M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r247086215-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -792,6 +894,9 @@
     <t>This hotel is great if you are on a budget. The room was a good size and contains a kitchen area with a fridge/freezer/stove. The breakfast buffet was tasty and there was a lot of choices. Rooms are away from the reception area, so they look more like mini apartments than hotel rooms. You can walk to food stores that are situated across the street, and you can even provide the hotel staff with a list of groceries that they will get for you and unpack in your fridge the next day during room service (free of charge). The only negative thing I have to say about this hotel is in regards to parking. Even though the hotel grounds contain a lot of parking spaces for guests, if you return to your hotel late at night, you will have to park a long way away from your hotel room.More</t>
   </si>
   <si>
+    <t>Saraab_123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r243558174-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -826,6 +931,9 @@
   </si>
   <si>
     <t>We loved the pet-friendly accommodations at Residence Inn La Mirada. Having a real kitchen (although small) was so fantastic. Having 2 separate bedrooms and baths gave us a nice amount of space. Best of all was that the hotel is pet friendly and accommodates our other family member. Not only did he have a good time, he thought the smells down by our area were amazing. It was like his own personal Disneyland. For non-pet people, not to worry - there is a separate building for the pet folks. Plus, the fee covers deep cleaning of the unit after every guest. There were NO smells in our unit at all. We loved the hot - REAL - breakfast and the focus on customer service. We hosted Thanksgiving with local family in our room, and the staff loaned us a portable banquet table and chairs to make it easy. Even with a table set up, our unit did not feel cramped. We brought in a complete Thanksgiving dinner from Mimi's Cafe that was 5 minutes away - also excellent. The room cleanliness was perfect, the beds super comfortable, and the style of the unit was modern and up to date. The location was terrific with easy access to I-5, yet in an industrial section, so it was very quiet. But VERY close to ample shopping, plus easy to get to Knott's Berry Farm or Disneyland. We WILL be back.More</t>
+  </si>
+  <si>
+    <t>Jarleen V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r220374014-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
@@ -869,6 +977,9 @@
   </si>
   <si>
     <t>July 2014</t>
+  </si>
+  <si>
+    <t>EuroHopper</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r211182386-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
@@ -901,6 +1012,9 @@
 Credit has to go to all the staff that I came into contact with throughout my stay. Kudos to the gentleman who looks after the breakfast area and replenishes all the stock, I believe he was called Timothy, he was such a happy chap and made the breakfast a very nice experience to start the day. I particularly would like to thank Trevor on the front desk who kindly helped me out of a sticky situation with my credit card company, he went above and beyond the call of duty as he could...The property can be difficult to get too, so do some research as I ended up on the wrong side of the Motorway and although I could see the property it took me a while to find the right road to it. Saying that I arrived from Long Beach Airport and avoided the Motorways, but I think its more accessible from the slip roads.I found the hotel to be very nice, modern and clean with ample parking and the rooms where comfortable and had eveything I needed. I was given a ground floor room and there wasnt an issue with noise from the motorway or neighbours but perhaps the hotel wasnt full to capacity as it was a Thursday night.The hotel has a very nice pool and spa area and a laundry area and small gym. I used the laundry area and eveything worked fine.Credit has to go to all the staff that I came into contact with throughout my stay. Kudos to the gentleman who looks after the breakfast area and replenishes all the stock, I believe he was called Timothy, he was such a happy chap and made the breakfast a very nice experience to start the day. I particularly would like to thank Trevor on the front desk who kindly helped me out of a sticky situation with my credit card company, he went above and beyond the call of duty as he could see I was getting stressed with my c/c provider whereby they had locked my account because I had travelled out of the UK, he helped me fax over my passport and copy of my card back to the UK for verification.Overall, I would recommend the RC La Mirada to anyone, its close to Beach Blvd whereby you will find numerous eateries and stores.More</t>
   </si>
   <si>
+    <t>AZwanderlust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r199781963-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -919,6 +1033,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Dana T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r199563351-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -935,6 +1052,9 @@
   </si>
   <si>
     <t>We stayed at this hotel last weekend when the 5.1 earthquake hit.  The hotel was about 15 miles from the epicenter.  It rolled and shook but held up well!  We had a two bedroom suite and a studio suite.  All were spacious and comfortable and clean.  We used the pool one evening and had breakfast both mornings we were there.  It was busy for breakfast and sometimes we had to wait for hot foods to be replenished but I appreciated having eggs and protein available as opposed to just heavy carbs.  My kids loved the waffle station!  We were there to go to Knott's Berry Farm which was a five minute drive from the hotel.  We would book again.More</t>
+  </si>
+  <si>
+    <t>ColoBee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r198654270-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
@@ -959,6 +1079,9 @@
 Cons:  I'm six feet tall and the shower head sits at nose level for me.  There is a...I stay at this Residence Inn when I travel to LA because it is 5 minutes from the office I work in, and I appreciate the convenience.  The main thing I don't like about this hotel is the layout, as I prefer the traditional hotel layout, not the spreadout "apartment building complex" layout that they have here.  As a woman who travels by herself, this doesn't always lend to feeling safe.  At any rate, that is what it is, just be aware if you have the same misgivings.  At check in, I didn't feel like the gentleman that checked me in was very customer-service oriented and wasn't very welcoming.  Pros:  The rooms are spacious and have a mini kitchen to be able to prepare some food, as well as a full-size refrigerator/freezer.  If you are staying for a full week and want to have some meals in your room, this is ideal.  I don't like going to the main building for breakfast, so I am able to have that in my room.  Because you are NOT in a typical "hotel" layout, you generally have less noise around you, since you only have someone above you and maybe sharing one wall beside you, so unless you have someone upstairs from you who likes to do aerobics, you don't hear a lot of noise.Cons:  I'm six feet tall and the shower head sits at nose level for me.  There is a strange noise coming from my sink, that makes me wonder if Zool is sending the Keymaster to my room (Ghostbusters reference).  Because of the outside access, you will likely find some bugs in your room.  Not an infestation, hopefully, but I've found a couple already.  Overall like I said, I stay here for the convenience to my work site when I'm traveling.  The rooms are nice enough, but do show some wear and tear, but that's pretty standard in most hotels I've stayed in.  I would give this about a 3.5 stars overall.  I didn't partake in the manager's reception at night (Monday - Thursday) or the breakfast, so I can't comment on that, but other reviewers have.  I think this hotel is ideal for a business stay, but wouldn't bring the family to stay here.More</t>
   </si>
   <si>
+    <t>David_Aggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r197111413-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -977,6 +1100,9 @@
     <t>I have stayed at this hotel over a 100 nights over the last three years.  Its located in La Mirada, CA which is about 15 minutes from the Disney complex and 25 minutes from downtown L.A.    The hotel attracts a mixture of people, but primarily business people and those displaced from their home in need of long term accommodations.   They offer a very nice evening social hour and complimentary dinner on Monday through Thursday and a free breakfast in the morning.   The rooms were recently remodeled and are very nice.   The staff is very, very nice.   You would think you were in Texas vs. California.   Its right off the 5 freeway, but if you stay in the back of the property in the 3-7 buildings, you will hear very little, if any noise from the freeway.    As with all Residence Inn's, you always want to be on the second floor.   Its not a fancy place, but its very clean and a very good value.   I don't think of this as a vacation spot, but if you are here on business or an extended stay you will be pleased with this hotel and their amenities.More</t>
   </si>
   <si>
+    <t>CRM85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r196688449-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -992,6 +1118,9 @@
     <t>The rooms of this hotel are very nice! Two-room suites that were recently udated, it seems. The living area has a full kitchen with a tv seating area and couch. The bedrooms are fairly large.The staff in this hotel was very friendly. The breakfast was pretty good for continental. Eggs, canadian bacon, potatoes, cereals, waffles, etc.The only issue is its location. Not the best of areas and it is RIGHT off the freeway which makes it a bit noisy.</t>
   </si>
   <si>
+    <t>Waltp61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r195246095-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1010,6 +1139,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>ilttatw_2222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r189516191-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1028,6 +1160,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>travelguardian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r187752945-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1043,6 +1178,9 @@
     <t xml:space="preserve">This place is more than excellent!!!! Staff is great. Rooms are modern and super clean. Water pressure in shower is awesome. Breakfast is a buffet instead of a continental breakfast.  I will look for a Residence Inn every where I go. </t>
   </si>
   <si>
+    <t>Jane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r186689032-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1061,6 +1199,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>skinnspirit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r183591031-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1079,6 +1220,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Bbulmer86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r179825940-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1094,6 +1238,9 @@
     <t>Most uncomfortable stay I have ever had at a residence inn.  Take my advice and enjoy your sleep somewhere else.  The light sensors in the room are very sensitive, the slightest turn will activate the lights.  Therefore, the lights come on every hour of the night. No sound proof rooms, you are forced to hear your neighbors every move.</t>
   </si>
   <si>
+    <t>Jon T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r175812818-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1115,6 +1262,9 @@
     <t>We stayed here one night while visiting some family in the area. This place is located right across from an In-N-Out Burger - you can't beat that! We had our one year old daughter with us on the trip and the staff was accommodating. They offered to help us with the pac-n-play and had it delivered to our room before we even arrived so it was waiting for us on arrival. This was a huge help because we arrived late in the night, and our daughter was able to go right to sleep with no trouble. Breakfast was great and so was our whole experience. Would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Ed VV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r162122939-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1133,6 +1283,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>mll563</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r160017130-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1154,6 +1307,9 @@
     <t>We stayed at this property many many times (77) when on business and decided to stay on a leisure trip.  All rooms have been remodeled but we saw nothing wrong with the rooms previously.  We have usually stayed in a studio but also a one bedroom.  The staff upon check in, Susan, was great and good to see Timothy at our breakfasts.  We also enjoyed the social hour and is one reason we stay at Residence Inn.  The beds are great as well.  If back in the area we will most likely stay again.   We stayed one night in February and came back for three more in March.  We did have a slight problem after checking out but was resolved quickly.More</t>
   </si>
   <si>
+    <t>Int_Bus_Travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r158987170-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1172,6 +1328,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Erin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r153726651-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1190,6 +1349,9 @@
     <t>Stayed here after going to the Pirate Dinner Experience in Buena Park. The hotel is about 5 minutes from the Pirate Dinner Show, Midevil Times, etc. The hotel is located right off the 5 freeway and is directly across the street from the freeway, but freeway noise wasn't an issue to us - we could hardly hear it. The room was a queen with a sofa bed. The sofa was very, very small and was intended to sleep one person. We fit our two kids but only because they're very small. The room was very nice with mini kitchen facilities - not the norm for hotels but we loved it. Everything was renovated very well down to the shower curtain. Breakfast was great and offered more hot food than I was expecting, even make your own omelets. There is an evening reception as well but it's only Monday-Thursday. We didn't take part in it as we were there on a Friday/Saturday. Nice staff, nice pool/spa area. Gym was good and open 24 hours, laundry adjacent to gym and nice for a longer stay.More</t>
   </si>
   <si>
+    <t>lucky_lak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r152588374-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1208,6 +1370,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>dnvrjeep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r151324436-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1223,6 +1388,9 @@
     <t>Stayed 1/31 to 2/1 for business.  Check in was quick and efficient, room was clean and the bed was comfy.  Extras:  good water pressure in the shower, the fireplace is stocked with one of those flame logs, really nice slab granite in the kitchenette (fridge/2 burners, microwave).  Breakfast was very busy with some odd people stockpiling food, one morning there was no meat, the other the meat was cold.  Relied on the shuttle to get to/from work in the morning, which saved some $$ and the drivers were always really nice.</t>
   </si>
   <si>
+    <t>Steve S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r145078374-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1241,6 +1409,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>sgmkjsekar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r144676114-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1262,6 +1433,9 @@
     <t>I stayed here for 2 nights on business. This is one of the few marriott hotel that comes with a Kitchen. It's a little bit pricey with rate more than $100 per night but it is very comfortable. Especially the breakfast. The hotel also serves light dinner monday through thursday which is good enough for someone on business, it works for families too.. It is very close to I5, so the moment you step out of the hotel, you get the roaring noise of the highway. Also, AT&amp;T signal strength is very bad inside and even outside the I get hardly a point or 2. So I had difficulties attending to conference calls though this is not something with the hotel but still people on business who has AT&amp;T connection need to watch out for.More</t>
   </si>
   <si>
+    <t>D L O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r144126154-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1277,6 +1451,9 @@
     <t>Tis location was quite nice. It looked like it may have been a refurbished apartment complex since the layout for a Residence Inn was unusual.  Staff did a great job. The room was well stocked and clean. Loved the set up of the kitchen. It would be a very comfortable place for an extended stay.</t>
   </si>
   <si>
+    <t>bargingirl702</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r137667969-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1295,6 +1472,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>destinationdoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r132666575-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1313,6 +1493,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>rockclimber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r131576524-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1331,6 +1514,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>ProMetalSales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r122920829-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1349,6 +1535,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Andrea T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r122684494-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1370,6 +1559,9 @@
     <t>I am loyal to staying at Marriott branded hotels when I travel. I travel at least once a month throughout the year. This was the first time staying at this hotel in Buena Park. First of all, the hotel looked like an apartment complex. When I walked into my room, I was totally disappointed at the "1970's" decor. Old, old, old.  About 11:30pm, I go to plug my cell phone up in the kitchen and what scurried across the counter? You guessed it; a ROACH!  I was livid and immediately called the front desk. The clerk told me that someone would be there shortly. "Shortly" turned into 20 minutes. In walks the clerk with a can of RAID. She asks me where the roach is and I reply it is going in and out of the microwave. The clerk sprayed the counter with raid and then asked me if I was going to use the microwave. What!? Of course not manager was on site that night. The clerk took the microwave and threw it in the garbage can in front of my room.  Needless to say, I could not sleep after that. I was constantly checking my luggage to make sure I would not be carrying any extra travelers home. I was getting dressed the next morning while talking to my husband on my cell and what did I see scurry across the kitchen wall? Another ROACH! I will never...I am loyal to staying at Marriott branded hotels when I travel. I travel at least once a month throughout the year. This was the first time staying at this hotel in Buena Park. First of all, the hotel looked like an apartment complex. When I walked into my room, I was totally disappointed at the "1970's" decor. Old, old, old.  About 11:30pm, I go to plug my cell phone up in the kitchen and what scurried across the counter? You guessed it; a ROACH!  I was livid and immediately called the front desk. The clerk told me that someone would be there shortly. "Shortly" turned into 20 minutes. In walks the clerk with a can of RAID. She asks me where the roach is and I reply it is going in and out of the microwave. The clerk sprayed the counter with raid and then asked me if I was going to use the microwave. What!? Of course not manager was on site that night. The clerk took the microwave and threw it in the garbage can in front of my room.  Needless to say, I could not sleep after that. I was constantly checking my luggage to make sure I would not be carrying any extra travelers home. I was getting dressed the next morning while talking to my husband on my cell and what did I see scurry across the kitchen wall? Another ROACH! I will never stay in this hotel again!!!  the manager was totally embarassed and for good reason. She told me that they have a contract with a pest control company. I guess they didn't do there job before I checked in.  I want to give Kudos to the manager who compensated me with Marriotts Rewards Points on my account (worth a free night with points to spare). I have traveled for my job for four years and have never had any kind of bugs in my hotel room. Stay here at your own risk.More</t>
   </si>
   <si>
+    <t>rockhound94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r116966617-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1391,6 +1583,9 @@
     <t>We stayed here on a trip through California. We had a difficult time finding it. It located on Firestone Blvd. No where was it indicated that there are two Firstone Blvds. One is on the west side of I5 and the other on the east side. Neither has a  direction designation. After wasting five - eight minutes searching on the west side, my wife saw it across I5. We finally found it. It doesn't have the typical Residence Inn architecture. It's a series of two story buildings in SoCal Spanish architecture spanning two dises of a small parking lot. We had a typicaal studio suite which is a good size. There is plenty of room for your baggage and yourselves. The workstation was a good size. The bathroom had sufficient counter space. Water pressure was very good and had quick hot water. The kitchenette had everything we needed. The buildings are somewhat removed from I5 thus almost eliminating that noise. Breakfast was the usual with cereals, waffles, fruit, juices, etc. The downside is for first floor suites. The space between buildings is an echo chamber and at 2:30 a.m. can rouse you from a sound sleep. We had that problem when a neighbor's friends left and continued talking in louder than normal voices. We didn't confront them.More</t>
   </si>
   <si>
+    <t>Shirley L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r114117772-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1412,6 +1607,9 @@
     <t>This hotel is clean, close and friendly. There are special Biola rates but always ask which is a better deal. The front desk will check for you. Generally weekend rates are less expensive through the Marriott rate. The rooms are all suites, lots of space and has a full size kitchen. The breakfast is one of the best we have seen. Besides the usual hot stuff, there are yogurt parfaits, pancake amenities include blueberries, chocolate chips and walnuts! The coffee is high quality and you can make your own mocha by mixing in the hot chocolate mix.There is a small basketball court which is a plus for my student who was visiting Biola.Not only will I return, I've booked their 2 bedroom, 2 bath suite for move in weekend!More</t>
   </si>
   <si>
+    <t>Lepha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r110034452-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1430,6 +1628,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>lakergirl32171</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r93676063-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1448,6 +1649,9 @@
     <t>I actually changed hotels to stay here.  I was quite disappointed with the rooms!! They are definitely not Mariott quality.  We had a 1 bedroom suite.  They actually look like an old apartment complex that Marriott took over.  I have stayed in quite a few Marriott Residence Inns and boy was I surprised with this one.  The room was clean but everything was old!!  The couch sank in the middle and the bed sucked.  It was like Motel 6 with a kitchen.   All the numbers were faded on the stove.We were on the first floor could hear every movement from our upstairs neighbor.  We heard the noise from the 5 freeway all night long.  Definitely not worth $149.00 a night.The staff were very friendly and helpful but I would never stay here again.More</t>
   </si>
   <si>
+    <t>sassafras1353</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r76876484-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1469,6 +1673,9 @@
     <t>We booked this hotel because they had a great rate for families from Biola University.  We had two rooms, a two bedroom for the first night: the room was very clean and well appointed with a kitchen and sitting area.  The room was on the freeway side of the building, so sitting on the lanai was very noisy, request a room facing the inside of the hotel.  The majority of our trip was in a studio.  It was also very clean and well appointed, the inside room was much quieter also. The best part of our stay was the staff (Hello to the "happy guy" Timothy who greeted us every morning for breakfast)  The  breakfast is great! waffles, eggs, sausage, cerial, fresh fruit, yogert..all yummy and well stocked.  We will definately be returning. ;)  PS.There are 4 resturants within walking distance.More</t>
   </si>
   <si>
+    <t>Steve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r75699536-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1487,6 +1694,9 @@
     <t>Marriott needs to renovate this place!  This place is falling apart!!Cleanliness - 3 stars since things were fairly clean.Location - 3 stars since place is less than 1 mile from my workplace and there is an In &amp; Out Burger next door.Rooms - 2 stars since place is old with old bed, old sofa, old TV, old lamps, old stove, old microwave.  The only good thing about the room is the free internet and safe.Service - 4 stars since staff was friendly.  Value - 2 stars since there are other hotels near by that offers better value.Sleep quality - 1 star since mattress has been used for so long that it just sinks down and the pillows go flat quickly.  In addition, if your room is on the ground floor, then you will definitely hear the person on the second floor and feel the loud vibration when that person walks around (thump! thump! thump!).  And the air conditioner unit right outside the window (next to the bed) is quite annoying as it goes on and off during the night.More</t>
   </si>
   <si>
+    <t>lr0che</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r68953673-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1508,6 +1718,9 @@
     <t>This room was not Marriott quality.  old tv, old bedding, not like any other Residence Inn I have stayed at.  There were so many kids, teenagers yelling  and milling around, all from a soccer team, yes, but kids everywhere.  Breakfast was not doable due to all the noise of the kids and their taking over the whole breakfast bar.  Will not stay at this hotel again and have learned to check the category types.  This was a category 3, and though the security guards responded quickly, I shouldn't have even had to make that call.  Very disappointed with this particular hotel, especially when there are tons of other hotels nearby. noise from nearby theme park?  sounded like explosions going off.  ask to not be put next to freeway or Firestone Blvd.More</t>
   </si>
   <si>
+    <t>GaTechYellowJacket</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r48900243-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1527,6 +1740,9 @@
   </si>
   <si>
     <t>This property seems like (and may well be) an old motel that Marriott purchased and converted to a Residence Inn. The location is in an industrial park right next to the highway, and it definitely didn't seem well-lit at night. The breakfast was good and I liked the fact that they had some healthy options. The staff was very friendly, but I was surprised my "upgraded" room was a ground floor room right next to the laundry room and housekeeping suite. The TV in my bedroom did not work correctly, and the room itself was very basic / no frills. From the decor to the appliances, everything looked a bit dated to me. My biggest beef with the property is what you pay here. Even on a discounted corporate rate, I paid more than colleagues attending the same business meeting who stayed a very nice full service hotels like the Sheraton for less. Those hotels are certainly in nicer areas with more dining, shopping, and entertainment options around. At the end of the day, this hotel was fine, but I saw first hand two better properties in the area that I would definitely lean towards next time.More</t>
+  </si>
+  <si>
+    <t>cindy_deh</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r39363329-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
@@ -1552,6 +1768,9 @@
 First, we found a used pillow behind our couch, it looked like it had been there for sometime. So we figured the staff is not thorough in cleaning the rooms. Second, the room we were in made very loud noises, like the dishwasher made noises every hour even when it is not active. The piping also made so much noise everytime we finish shower. Third, one day we came back from disneyland at around 6 pm and found that all our carpets were wet, there was a note on the table that said that the carpet had just been washed. Then, we found that all of our suitcases AND SHOES, were left on our BEDS !!! We had a 2 bedroom suite so we did have a number of luggages and shoes. And as if that was not enough to send us to our necks, we also found our hand-carry bags ON TOP OF our LAPTOPS, which are then put...The rooms are very well maintained. Breakfast is more than okay, full menu : waffles, oatmeal, yogurt, sausages, potatoes, fruits, you name it. They even give free supper with wine and beer too every weekday! The bad thing is that all their housekeeping staff do not speak English and our guess is that they are not very well trained. These are the couple of things that happened to us that made us rethink again of the huge brand name MARRIOTT.First, we found a used pillow behind our couch, it looked like it had been there for sometime. So we figured the staff is not thorough in cleaning the rooms. Second, the room we were in made very loud noises, like the dishwasher made noises every hour even when it is not active. The piping also made so much noise everytime we finish shower. Third, one day we came back from disneyland at around 6 pm and found that all our carpets were wet, there was a note on the table that said that the carpet had just been washed. Then, we found that all of our suitcases AND SHOES, were left on our BEDS !!! We had a 2 bedroom suite so we did have a number of luggages and shoes. And as if that was not enough to send us to our necks, we also found our hand-carry bags ON TOP OF our LAPTOPS, which are then put by SHOES ON TOP OF those bags !! I mean, first of all, why would you make all the carpets wet while we were still there for at least another 5 days. And why didn't they confirm with us first ? And how inappropriate it is for them to place shoes and suitcases on our beds ?!! We are very clean people, we don't even walk inside the room with our shoes on! So anyway, we did complained to the front office staff in the morning (because the carpet was STILL WET at that point), and the way that these staff responded was very unprofessional too. They looked terrified and just said sorry. And later that day they send some cookies and an apology note to our rooms. We think that that was not enough, knowing that MARRIOTT was such a big name.. We have stayed in other hotels such as the MARCOPOLO, HYATT, or WESTIN, etc, and made smaller, minor complaints, and received upgrades or free stays as gestures of their apologies. But then again, these were in Asia, and I do believe and have noticed that the hospitality industry in the US is not as service oriented as it is in Asia.More</t>
   </si>
   <si>
+    <t>Zanika2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r21522052-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1573,6 +1792,9 @@
     <t>I stayed at the Residence Inn for three nights this October for business.  I was very pleased with my stay at this hotel, and I want to recommend it to anyone looking for a nice hotel in La Mirada.  The hotel looks more like an apartment complex than a hotel.The rooms were quite spacious, and the full size kitchen was wonderful when I wanted to make my own dinner.  The rooms have a fridge, dishwasher, sink, microwave, and two stovetops.  There is also an "In-N-Out" burger stand next door to the hotel.The bed was decent, not the most comfortable bed I've slept in... but it wasn't bad either.  The continental breakfast was adequate.  A rather basic breakfast meal, but filling.  I recommend the breakfast potatoes slices.More</t>
   </si>
   <si>
+    <t>btreid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r14818723-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1594,6 +1816,9 @@
     <t>This hotel is next to I5 freeway and you can really hear the noise. Our room was in the front building and you can hear noise even in wee hours! . So, ask for a room close to the end of the property. I asked them to move us but the lady in charge  on weekend was not willing to move us. She keeps  telling me they don't have any available room .  Her name is Deborah.The breakfast was okey. The coffee was the worst coffee I ever had. It was  terrible.  The guy in charge of breakfast is a wonderful guy and I can forgive them for the  lousy coffee because Tim is such a hardworking guy. I never saw him stop working while we were there. His name is Tim Lopez, great personality and Residence Inn should be proud of him.More</t>
   </si>
   <si>
+    <t>ericbird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r8255758-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
   </si>
   <si>
@@ -1613,6 +1838,9 @@
   </si>
   <si>
     <t>We stayed at the Residence Inn in la Mirada for our mini vacation to Knotts Berry Farm.  We booked at the last minute and this was the only hotel available. It was about a 10 minute drive to Knotts, but there were a lot of restaurants within walking distance.  What separated this hotel from similar ones was the extraordinary customer service.  We arrived too late for the evening reception and the server felt so bad that he delivered a dozen fresh, warm chocolate chip cookies and 4 milks to our room half an hour later!  Very impressed.  The room was plenty big enough for our family of 4 and the full kitchen is always a plus!More</t>
+  </si>
+  <si>
+    <t>Krissybelle</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32580-d78385-r5013901-Residence_Inn_La_Mirada_Buena_Park-La_Mirada_California.html</t>
@@ -2147,43 +2375,47 @@
       <c r="A2" t="n">
         <v>28783</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2197,50 +2429,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28783</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2260,50 +2496,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28783</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2317,50 +2557,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28783</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2374,50 +2618,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28783</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2429,56 +2677,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28783</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2498,50 +2750,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28783</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2559,50 +2815,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28783</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2620,50 +2880,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28783</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2677,50 +2941,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28783</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2734,50 +3002,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28783</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2791,50 +3063,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28783</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2850,56 +3126,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28783</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2917,50 +3197,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28783</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2978,50 +3262,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28783</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3035,50 +3323,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28783</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3098,50 +3390,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28783</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3161,50 +3457,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28783</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3218,50 +3518,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28783</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3279,50 +3583,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>28783</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3342,50 +3650,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>28783</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3403,50 +3715,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>28783</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3460,50 +3776,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28783</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3521,50 +3841,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28783</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3578,50 +3902,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28783</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3639,50 +3967,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28783</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3702,50 +4034,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28783</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3765,50 +4101,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28783</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3822,50 +4162,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28783</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3879,50 +4223,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28783</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3942,50 +4290,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28783</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3999,50 +4351,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28783</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4062,50 +4418,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28783</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4119,50 +4479,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28783</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4180,41 +4544,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28783</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4243,50 +4611,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28783</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4304,50 +4676,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28783</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4365,50 +4741,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28783</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>280</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4426,50 +4806,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28783</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4493,50 +4877,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28783</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>324</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="J41" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4560,50 +4948,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>28783</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="J42" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4627,50 +5019,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>28783</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>338</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="J43" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="K43" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4694,50 +5090,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>28783</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>345</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4761,41 +5161,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>28783</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>352</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -4814,50 +5218,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>28783</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>358</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="J46" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4881,50 +5289,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>28783</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>365</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4948,41 +5360,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>28783</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>372</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="J48" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5011,50 +5427,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>28783</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>378</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="J49" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5078,50 +5498,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>28783</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>385</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5145,41 +5569,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>28783</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>392</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="J51" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="K51" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
@@ -5208,50 +5636,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>28783</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5275,50 +5707,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>28783</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>406</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="J53" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="K53" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5342,50 +5778,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>28783</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>413</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="J54" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="O54" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5409,50 +5849,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>28783</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>421</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="J55" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="K55" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5476,50 +5920,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>28783</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>428</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="J56" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5543,50 +5991,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>28783</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="J57" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="K57" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5610,50 +6062,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>28783</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>442</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5677,50 +6133,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>28783</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>448</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="J59" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5734,50 +6194,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>28783</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>455</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="J60" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="K60" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="L60" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5801,50 +6265,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>28783</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>463</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="J61" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="K61" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="L61" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5858,50 +6326,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>28783</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>469</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="K62" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="L62" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5925,50 +6397,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>28783</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>476</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="J63" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="K63" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="L63" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -5992,50 +6468,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>28783</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>483</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="J64" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="K64" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6059,50 +6539,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>28783</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>490</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="J65" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="K65" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="L65" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6126,50 +6610,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>28783</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>497</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="J66" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="K66" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="L66" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6193,50 +6681,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>28783</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>505</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="J67" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="K67" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="L67" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6256,50 +6748,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>28783</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>513</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="J68" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="K68" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="L68" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6319,50 +6815,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>28783</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>521</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="J69" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="K69" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="L69" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6386,41 +6886,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>28783</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>528</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="J70" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="K70" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="L70" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
@@ -6449,50 +6953,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>28783</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>535</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="J71" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="K71" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="L71" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6516,50 +7024,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>28783</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>543</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J72" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="K72" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="L72" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -6583,50 +7095,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>28783</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>550</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="J73" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="K73" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="L73" t="s">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="O73" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -6650,50 +7166,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>28783</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>558</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="J74" t="s">
-        <v>490</v>
+        <v>561</v>
       </c>
       <c r="K74" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="L74" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -6717,50 +7237,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>28783</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>566</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>495</v>
+        <v>567</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="J75" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="K75" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="L75" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -6784,50 +7308,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>28783</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>574</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="J76" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="K76" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="L76" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -6851,50 +7379,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>508</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>28783</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>582</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="J77" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="K77" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="L77" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -6918,50 +7450,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>28783</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>590</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="J78" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="K78" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="L78" t="s">
-        <v>520</v>
+        <v>595</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -6985,41 +7521,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>522</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>28783</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>598</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="J79" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="K79" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="L79" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
@@ -7046,7 +7586,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
